--- a/level-2/codeforces-phase-2-2/codeforces-phase-2-2.xlsx
+++ b/level-2/codeforces-phase-2-2/codeforces-phase-2-2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F60AD77A-FFAE-4461-9D7D-D4A4FDE1812C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12690" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="codeforces level 2.2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -354,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -604,19 +605,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -635,6 +630,12 @@
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1030,7 +1031,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O200"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -1038,97 +1039,97 @@
       <selection pane="bottomLeft" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="5" customWidth="1"/>
-    <col min="3" max="7" width="7.140625" style="4" customWidth="1"/>
-    <col min="8" max="12" width="15.140625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="62.5703125" style="16" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" style="5" customWidth="1"/>
+    <col min="3" max="7" width="7.109375" style="4" customWidth="1"/>
+    <col min="8" max="12" width="15.109375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="4" customWidth="1"/>
+    <col min="14" max="14" width="62.5546875" style="16" customWidth="1"/>
     <col min="15" max="15" width="99" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="18" t="s">
+    <row r="1" spans="1:15" s="6" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="19" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="17" t="s">
+    <row r="2" spans="1:15" s="6" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="27"/>
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="7">
         <f>SUM(C4:C788)</f>
         <v>16</v>
       </c>
       <c r="D3" s="7">
         <f>SUM(D4:D788)</f>
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7">
         <f>SUM(E4:E788)</f>
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F3" s="7">
         <f>SUM(F4:F788)</f>
@@ -1139,27 +1140,27 @@
         <v>8</v>
       </c>
       <c r="H3" s="8" t="e">
-        <f t="shared" ref="H3:M3" si="0">AVERAGE(H4:H176)</f>
+        <f>AVERAGE(H4:H176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="I3" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(I4:I176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="J3" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(J4:J176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K3" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(K4:K176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="L3" s="8" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(L4:L176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M3" s="8">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(M4:M176)</f>
         <v>0</v>
       </c>
       <c r="N3" s="7">
@@ -1171,7 +1172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>136</v>
       </c>
@@ -1199,7 +1200,7 @@
       </c>
       <c r="O4" s="14"/>
     </row>
-    <row r="5" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>137</v>
       </c>
@@ -1227,7 +1228,7 @@
       </c>
       <c r="O5" s="14"/>
     </row>
-    <row r="6" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>146</v>
       </c>
@@ -1255,7 +1256,7 @@
       </c>
       <c r="O6" s="12"/>
     </row>
-    <row r="7" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>192</v>
       </c>
@@ -1283,7 +1284,7 @@
       </c>
       <c r="O7" s="12"/>
     </row>
-    <row r="8" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>204</v>
       </c>
@@ -1303,7 +1304,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="10">
-        <f t="shared" ref="M8:M71" si="1">SUM(H8:L8)</f>
+        <f t="shared" ref="M8:M71" si="0">SUM(H8:L8)</f>
         <v>0</v>
       </c>
       <c r="N8" s="15" t="s">
@@ -1311,7 +1312,7 @@
       </c>
       <c r="O8" s="12"/>
     </row>
-    <row r="9" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>263</v>
       </c>
@@ -1331,7 +1332,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" s="15" t="s">
@@ -1339,7 +1340,7 @@
       </c>
       <c r="O9" s="12"/>
     </row>
-    <row r="10" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13">
         <v>314</v>
       </c>
@@ -1359,7 +1360,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="9"/>
       <c r="M10" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N10" s="15" t="s">
@@ -1367,7 +1368,7 @@
       </c>
       <c r="O10" s="12"/>
     </row>
-    <row r="11" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>341</v>
       </c>
@@ -1387,7 +1388,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N11" s="15" t="s">
@@ -1395,7 +1396,7 @@
       </c>
       <c r="O11" s="12"/>
     </row>
-    <row r="12" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>368</v>
       </c>
@@ -1415,7 +1416,7 @@
       <c r="K12" s="13"/>
       <c r="L12" s="13"/>
       <c r="M12" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12" s="15" t="s">
@@ -1423,7 +1424,7 @@
       </c>
       <c r="O12" s="12"/>
     </row>
-    <row r="13" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>177</v>
       </c>
@@ -1443,7 +1444,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N13" s="15" t="s">
@@ -1451,7 +1452,7 @@
       </c>
       <c r="O13" s="12"/>
     </row>
-    <row r="14" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>269</v>
       </c>
@@ -1471,7 +1472,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
       <c r="M14" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N14" s="15" t="s">
@@ -1479,7 +1480,7 @@
       </c>
       <c r="O14" s="14"/>
     </row>
-    <row r="15" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>274</v>
       </c>
@@ -1499,7 +1500,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N15" s="15" t="s">
@@ -1507,7 +1508,7 @@
       </c>
       <c r="O15" s="14"/>
     </row>
-    <row r="16" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>277</v>
       </c>
@@ -1527,7 +1528,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
       <c r="M16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N16" s="15" t="s">
@@ -1535,7 +1536,7 @@
       </c>
       <c r="O16" s="14"/>
     </row>
-    <row r="17" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>292</v>
       </c>
@@ -1555,7 +1556,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N17" s="15" t="s">
@@ -1563,7 +1564,7 @@
       </c>
       <c r="O17" s="14"/>
     </row>
-    <row r="18" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>317</v>
       </c>
@@ -1583,7 +1584,7 @@
       <c r="K18" s="13"/>
       <c r="L18" s="13"/>
       <c r="M18" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N18" s="15" t="s">
@@ -1591,7 +1592,7 @@
       </c>
       <c r="O18" s="12"/>
     </row>
-    <row r="19" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>320</v>
       </c>
@@ -1611,7 +1612,7 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N19" s="15" t="s">
@@ -1619,12 +1620,12 @@
       </c>
       <c r="O19" s="12"/>
     </row>
-    <row r="20" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
-        <v>396</v>
+        <v>239</v>
       </c>
       <c r="B20" s="9">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9">
@@ -1633,26 +1634,26 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
       <c r="M20" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="O20" s="12"/>
-    </row>
-    <row r="21" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
-        <v>104</v>
+        <v>303</v>
       </c>
       <c r="B21" s="9">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9">
@@ -1661,26 +1662,26 @@
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N21" s="15" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="O21" s="12"/>
     </row>
-    <row r="22" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
-        <v>122</v>
+        <v>309</v>
       </c>
       <c r="B22" s="9">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9">
@@ -1689,26 +1690,26 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
       <c r="M22" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="O22" s="12"/>
     </row>
-    <row r="23" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
-        <v>123</v>
+        <v>327</v>
       </c>
       <c r="B23" s="9">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9">
@@ -1723,20 +1724,20 @@
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
       <c r="M23" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="O23" s="14"/>
     </row>
-    <row r="24" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
-        <v>132</v>
+        <v>370</v>
       </c>
       <c r="B24" s="9">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9">
@@ -1751,20 +1752,20 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
       <c r="M24" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="12"/>
-    </row>
-    <row r="25" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="O24" s="14"/>
+    </row>
+    <row r="25" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
-        <v>142</v>
+        <v>390</v>
       </c>
       <c r="B25" s="9">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9">
@@ -1779,20 +1780,20 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
       <c r="M25" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N25" s="15" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="O25" s="12"/>
     </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
-        <v>185</v>
+        <v>392</v>
       </c>
       <c r="B26" s="9">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9">
@@ -1807,17 +1808,17 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N26" s="15" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="O26" s="12"/>
     </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="B27" s="9">
         <v>1300</v>
@@ -1829,23 +1830,23 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
       <c r="M27" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N27" s="15" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="O27" s="14"/>
     </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="B28" s="9">
         <v>1300</v>
@@ -1857,23 +1858,23 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
       <c r="M28" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28" s="15" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="O28" s="12"/>
     </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="B29" s="9">
         <v>1300</v>
@@ -1885,23 +1886,23 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
       <c r="M29" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N29" s="15" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="O29" s="12"/>
     </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
-        <v>313</v>
+        <v>226</v>
       </c>
       <c r="B30" s="9">
         <v>1300</v>
@@ -1919,17 +1920,17 @@
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
       <c r="M30" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N30" s="15" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="O30" s="12"/>
     </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
-        <v>357</v>
+        <v>234</v>
       </c>
       <c r="B31" s="9">
         <v>1300</v>
@@ -1947,17 +1948,17 @@
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
       <c r="M31" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N31" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O31" s="14"/>
-    </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="O31" s="12"/>
+    </row>
+    <row r="32" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
-        <v>388</v>
+        <v>272</v>
       </c>
       <c r="B32" s="9">
         <v>1300</v>
@@ -1975,17 +1976,17 @@
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
       <c r="M32" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N32" s="15" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="O32" s="12"/>
     </row>
-    <row r="33" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
-        <v>394</v>
+        <v>342</v>
       </c>
       <c r="B33" s="9">
         <v>1300</v>
@@ -1997,23 +1998,23 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
       <c r="M33" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N33" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="O33" s="12"/>
-    </row>
-    <row r="34" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
-        <v>101</v>
+        <v>45</v>
+      </c>
+      <c r="O33" s="14"/>
+    </row>
+    <row r="34" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13">
+        <v>141</v>
       </c>
       <c r="B34" s="9">
         <v>1400</v>
@@ -2025,23 +2026,23 @@
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="O34" s="12"/>
-    </row>
-    <row r="35" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="O34" s="14"/>
+    </row>
+    <row r="35" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
-        <v>119</v>
+        <v>169</v>
       </c>
       <c r="B35" s="9">
         <v>1400</v>
@@ -2053,32 +2054,32 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N35" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="O35" s="12"/>
-    </row>
-    <row r="36" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="O35" s="14"/>
+    </row>
+    <row r="36" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
-        <v>124</v>
+        <v>396</v>
       </c>
       <c r="B36" s="9">
-        <v>1400</v>
+        <v>1100</v>
       </c>
       <c r="C36" s="9"/>
-      <c r="D36" s="9">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
@@ -2087,26 +2088,26 @@
       <c r="K36" s="9"/>
       <c r="L36" s="9"/>
       <c r="M36" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H36:L36)</f>
         <v>0</v>
       </c>
       <c r="N36" s="15" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="O36" s="12"/>
     </row>
-    <row r="37" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="B37" s="9">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C37" s="9"/>
-      <c r="D37" s="9">
-        <v>1</v>
-      </c>
-      <c r="E37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9">
+        <v>1</v>
+      </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="13"/>
@@ -2115,26 +2116,26 @@
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H37:L37)</f>
         <v>0</v>
       </c>
       <c r="N37" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="O37" s="14"/>
-    </row>
-    <row r="38" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="O37" s="12"/>
+    </row>
+    <row r="38" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="B38" s="9">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C38" s="9"/>
-      <c r="D38" s="9">
-        <v>1</v>
-      </c>
-      <c r="E38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -2143,54 +2144,54 @@
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
       <c r="M38" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H38:L38)</f>
         <v>0</v>
       </c>
       <c r="N38" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="O38" s="14"/>
-    </row>
-    <row r="39" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="O38" s="12"/>
+    </row>
+    <row r="39" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="B39" s="9">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="9">
-        <v>1</v>
-      </c>
-      <c r="E39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9">
+        <v>1</v>
+      </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H39:L39)</f>
         <v>0</v>
       </c>
       <c r="N39" s="15" t="s">
-        <v>77</v>
+        <v>21</v>
       </c>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="B40" s="9">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="9">
-        <v>1</v>
-      </c>
-      <c r="E40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9">
+        <v>1</v>
+      </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -2199,26 +2200,26 @@
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
       <c r="M40" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H40:L40)</f>
         <v>0</v>
       </c>
       <c r="N40" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="O40" s="14"/>
-    </row>
-    <row r="41" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="O40" s="12"/>
+    </row>
+    <row r="41" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
-        <v>196</v>
+        <v>142</v>
       </c>
       <c r="B41" s="9">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="9">
-        <v>1</v>
-      </c>
-      <c r="E41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9">
+        <v>1</v>
+      </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -2227,26 +2228,26 @@
       <c r="K41" s="9"/>
       <c r="L41" s="9"/>
       <c r="M41" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H41:L41)</f>
         <v>0</v>
       </c>
       <c r="N41" s="15" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="O41" s="12"/>
     </row>
-    <row r="42" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="B42" s="9">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="9">
-        <v>1</v>
-      </c>
-      <c r="E42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9">
+        <v>1</v>
+      </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -2255,26 +2256,26 @@
       <c r="K42" s="9"/>
       <c r="L42" s="9"/>
       <c r="M42" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H42:L42)</f>
         <v>0</v>
       </c>
       <c r="N42" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="O42" s="14"/>
-    </row>
-    <row r="43" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="O42" s="12"/>
+    </row>
+    <row r="43" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B43" s="9">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="9">
-        <v>1</v>
-      </c>
-      <c r="E43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9">
+        <v>1</v>
+      </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -2283,82 +2284,82 @@
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
       <c r="M43" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H43:L43)</f>
         <v>0</v>
       </c>
       <c r="N43" s="15" t="s">
-        <v>81</v>
+        <v>25</v>
       </c>
       <c r="O43" s="14"/>
     </row>
-    <row r="44" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="B44" s="9">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="9">
-        <v>1</v>
-      </c>
-      <c r="E44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9">
+        <v>1</v>
+      </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
-      <c r="K44" s="13"/>
-      <c r="L44" s="13"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H44:L44)</f>
         <v>0</v>
       </c>
       <c r="N44" s="15" t="s">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="O44" s="12"/>
     </row>
-    <row r="45" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="B45" s="9">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="9">
-        <v>1</v>
-      </c>
-      <c r="E45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9">
+        <v>1</v>
+      </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13"/>
-      <c r="L45" s="13"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H45:L45)</f>
         <v>0</v>
       </c>
       <c r="N45" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O45" s="14"/>
-    </row>
-    <row r="46" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="O45" s="12"/>
+    </row>
+    <row r="46" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="B46" s="9">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="C46" s="9"/>
-      <c r="D46" s="9">
-        <v>1</v>
-      </c>
-      <c r="E46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9">
+        <v>1</v>
+      </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="13"/>
@@ -2367,20 +2368,20 @@
       <c r="K46" s="13"/>
       <c r="L46" s="13"/>
       <c r="M46" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H46:L46)</f>
         <v>0</v>
       </c>
       <c r="N46" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="O46" s="14"/>
-    </row>
-    <row r="47" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="O46" s="12"/>
+    </row>
+    <row r="47" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
-        <v>239</v>
+        <v>357</v>
       </c>
       <c r="B47" s="9">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
@@ -2395,20 +2396,20 @@
       <c r="K47" s="13"/>
       <c r="L47" s="13"/>
       <c r="M47" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H47:L47)</f>
         <v>0</v>
       </c>
       <c r="N47" s="15" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O47" s="14"/>
     </row>
-    <row r="48" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
-        <v>303</v>
+        <v>388</v>
       </c>
       <c r="B48" s="9">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -2423,20 +2424,20 @@
       <c r="K48" s="9"/>
       <c r="L48" s="9"/>
       <c r="M48" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H48:L48)</f>
         <v>0</v>
       </c>
       <c r="N48" s="15" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="O48" s="12"/>
     </row>
-    <row r="49" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
-        <v>309</v>
+        <v>394</v>
       </c>
       <c r="B49" s="9">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2445,26 +2446,26 @@
       </c>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13"/>
-      <c r="L49" s="13"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
       <c r="M49" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H49:L49)</f>
         <v>0</v>
       </c>
       <c r="N49" s="15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="O49" s="12"/>
     </row>
-    <row r="50" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
-        <v>327</v>
+        <v>101</v>
       </c>
       <c r="B50" s="9">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -2473,26 +2474,26 @@
       </c>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
       <c r="M50" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H50:L50)</f>
         <v>0</v>
       </c>
       <c r="N50" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="O50" s="14"/>
-    </row>
-    <row r="51" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="O50" s="12"/>
+    </row>
+    <row r="51" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
-        <v>370</v>
+        <v>119</v>
       </c>
       <c r="B51" s="9">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
@@ -2501,26 +2502,26 @@
       </c>
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
       <c r="M51" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H51:L51)</f>
         <v>0</v>
       </c>
       <c r="N51" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="O51" s="14"/>
-    </row>
-    <row r="52" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="O51" s="12"/>
+    </row>
+    <row r="52" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
-        <v>390</v>
+        <v>124</v>
       </c>
       <c r="B52" s="9">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -2535,20 +2536,20 @@
       <c r="K52" s="9"/>
       <c r="L52" s="9"/>
       <c r="M52" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H52:L52)</f>
         <v>0</v>
       </c>
       <c r="N52" s="15" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="O52" s="12"/>
     </row>
-    <row r="53" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
-        <v>392</v>
+        <v>152</v>
       </c>
       <c r="B53" s="9">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -2557,26 +2558,26 @@
       </c>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
-      <c r="L53" s="9"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
       <c r="M53" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H53:L53)</f>
         <v>0</v>
       </c>
       <c r="N53" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="O53" s="12"/>
-    </row>
-    <row r="54" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="O53" s="14"/>
+    </row>
+    <row r="54" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
-        <v>107</v>
+        <v>159</v>
       </c>
       <c r="B54" s="9">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -2585,26 +2586,26 @@
       </c>
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13"/>
-      <c r="L54" s="13"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
       <c r="M54" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H54:L54)</f>
         <v>0</v>
       </c>
       <c r="N54" s="15" t="s">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="O54" s="14"/>
     </row>
-    <row r="55" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="B55" s="9">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="C55" s="9"/>
       <c r="D55" s="9"/>
@@ -2619,20 +2620,20 @@
       <c r="K55" s="13"/>
       <c r="L55" s="13"/>
       <c r="M55" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H55:L55)</f>
         <v>0</v>
       </c>
       <c r="N55" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="O55" s="12"/>
-    </row>
-    <row r="56" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="O55" s="14"/>
+    </row>
+    <row r="56" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="B56" s="9">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="C56" s="9"/>
       <c r="D56" s="9"/>
@@ -2641,26 +2642,26 @@
       </c>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13"/>
-      <c r="L56" s="13"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
       <c r="M56" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H56:L56)</f>
         <v>0</v>
       </c>
       <c r="N56" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="O56" s="12"/>
-    </row>
-    <row r="57" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="O56" s="14"/>
+    </row>
+    <row r="57" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="B57" s="9">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -2669,26 +2670,26 @@
       </c>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13"/>
-      <c r="L57" s="13"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
       <c r="M57" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H57:L57)</f>
         <v>0</v>
       </c>
       <c r="N57" s="15" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="O57" s="12"/>
     </row>
-    <row r="58" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="B58" s="9">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -2697,26 +2698,26 @@
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13"/>
-      <c r="L58" s="13"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
       <c r="M58" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H58:L58)</f>
         <v>0</v>
       </c>
       <c r="N58" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="O58" s="12"/>
-    </row>
-    <row r="59" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="O58" s="14"/>
+    </row>
+    <row r="59" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="B59" s="9">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -2731,20 +2732,20 @@
       <c r="K59" s="9"/>
       <c r="L59" s="9"/>
       <c r="M59" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H59:L59)</f>
         <v>0</v>
       </c>
       <c r="N59" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="O59" s="12"/>
-    </row>
-    <row r="60" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="O59" s="14"/>
+    </row>
+    <row r="60" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
-        <v>342</v>
+        <v>257</v>
       </c>
       <c r="B60" s="9">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -2759,17 +2760,17 @@
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
       <c r="M60" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H60:L60)</f>
         <v>0</v>
       </c>
       <c r="N60" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="O60" s="14"/>
-    </row>
-    <row r="61" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="13">
-        <v>141</v>
+        <v>82</v>
+      </c>
+      <c r="O60" s="12"/>
+    </row>
+    <row r="61" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="9">
+        <v>287</v>
       </c>
       <c r="B61" s="9">
         <v>1400</v>
@@ -2781,23 +2782,23 @@
       </c>
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="9"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
       <c r="M61" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H61:L61)</f>
         <v>0</v>
       </c>
       <c r="N61" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="O61" s="14"/>
     </row>
-    <row r="62" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
-        <v>169</v>
+        <v>291</v>
       </c>
       <c r="B62" s="9">
         <v>1400</v>
@@ -2809,21 +2810,21 @@
       </c>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
       <c r="M62" s="10">
-        <f t="shared" si="1"/>
+        <f>SUM(H62:L62)</f>
         <v>0</v>
       </c>
       <c r="N62" s="15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="O62" s="14"/>
     </row>
-    <row r="63" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>217</v>
       </c>
@@ -2843,7 +2844,7 @@
       <c r="K63" s="9"/>
       <c r="L63" s="9"/>
       <c r="M63" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N63" s="15" t="s">
@@ -2851,7 +2852,7 @@
       </c>
       <c r="O63" s="14"/>
     </row>
-    <row r="64" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>221</v>
       </c>
@@ -2871,7 +2872,7 @@
       <c r="K64" s="9"/>
       <c r="L64" s="9"/>
       <c r="M64" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N64" s="15" t="s">
@@ -2879,7 +2880,7 @@
       </c>
       <c r="O64" s="14"/>
     </row>
-    <row r="65" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>222</v>
       </c>
@@ -2899,7 +2900,7 @@
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
       <c r="M65" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N65" s="15" t="s">
@@ -2907,7 +2908,7 @@
       </c>
       <c r="O65" s="14"/>
     </row>
-    <row r="66" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>243</v>
       </c>
@@ -2927,7 +2928,7 @@
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
       <c r="M66" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N66" s="15" t="s">
@@ -2935,7 +2936,7 @@
       </c>
       <c r="O66" s="12"/>
     </row>
-    <row r="67" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>258</v>
       </c>
@@ -2955,7 +2956,7 @@
       <c r="K67" s="9"/>
       <c r="L67" s="9"/>
       <c r="M67" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N67" s="15" t="s">
@@ -2963,7 +2964,7 @@
       </c>
       <c r="O67" s="14"/>
     </row>
-    <row r="68" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>259</v>
       </c>
@@ -2983,7 +2984,7 @@
       <c r="K68" s="13"/>
       <c r="L68" s="13"/>
       <c r="M68" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N68" s="15" t="s">
@@ -2991,7 +2992,7 @@
       </c>
       <c r="O68" s="14"/>
     </row>
-    <row r="69" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>261</v>
       </c>
@@ -3011,7 +3012,7 @@
       <c r="K69" s="13"/>
       <c r="L69" s="13"/>
       <c r="M69" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N69" s="15" t="s">
@@ -3019,7 +3020,7 @@
       </c>
       <c r="O69" s="12"/>
     </row>
-    <row r="70" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>268</v>
       </c>
@@ -3039,7 +3040,7 @@
       <c r="K70" s="9"/>
       <c r="L70" s="9"/>
       <c r="M70" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N70" s="15" t="s">
@@ -3047,7 +3048,7 @@
       </c>
       <c r="O70" s="12"/>
     </row>
-    <row r="71" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>270</v>
       </c>
@@ -3067,7 +3068,7 @@
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
       <c r="M71" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N71" s="15" t="s">
@@ -3075,7 +3076,7 @@
       </c>
       <c r="O71" s="12"/>
     </row>
-    <row r="72" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>271</v>
       </c>
@@ -3095,7 +3096,7 @@
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
       <c r="M72" s="10">
-        <f t="shared" ref="M72:M116" si="2">SUM(H72:L72)</f>
+        <f t="shared" ref="M72:M97" si="1">SUM(H72:L72)</f>
         <v>0</v>
       </c>
       <c r="N72" s="15" t="s">
@@ -3103,7 +3104,7 @@
       </c>
       <c r="O72" s="12"/>
     </row>
-    <row r="73" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="9">
         <v>277.5</v>
       </c>
@@ -3123,7 +3124,7 @@
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N73" s="15" t="s">
@@ -3131,7 +3132,7 @@
       </c>
       <c r="O73" s="14"/>
     </row>
-    <row r="74" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="9">
         <v>288</v>
       </c>
@@ -3151,7 +3152,7 @@
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
       <c r="M74" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N74" s="15" t="s">
@@ -3159,7 +3160,7 @@
       </c>
       <c r="O74" s="14"/>
     </row>
-    <row r="75" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9">
         <v>289</v>
       </c>
@@ -3179,7 +3180,7 @@
       <c r="K75" s="13"/>
       <c r="L75" s="13"/>
       <c r="M75" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N75" s="15" t="s">
@@ -3187,7 +3188,7 @@
       </c>
       <c r="O75" s="12"/>
     </row>
-    <row r="76" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="9">
         <v>316</v>
       </c>
@@ -3207,7 +3208,7 @@
       <c r="K76" s="9"/>
       <c r="L76" s="9"/>
       <c r="M76" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N76" s="15" t="s">
@@ -3215,7 +3216,7 @@
       </c>
       <c r="O76" s="14"/>
     </row>
-    <row r="77" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="9">
         <v>325</v>
       </c>
@@ -3235,7 +3236,7 @@
       <c r="K77" s="9"/>
       <c r="L77" s="9"/>
       <c r="M77" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N77" s="15" t="s">
@@ -3243,7 +3244,7 @@
       </c>
       <c r="O77" s="14"/>
     </row>
-    <row r="78" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9">
         <v>337</v>
       </c>
@@ -3263,7 +3264,7 @@
       <c r="K78" s="9"/>
       <c r="L78" s="9"/>
       <c r="M78" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N78" s="15" t="s">
@@ -3271,7 +3272,7 @@
       </c>
       <c r="O78" s="12"/>
     </row>
-    <row r="79" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="9">
         <v>340</v>
       </c>
@@ -3291,7 +3292,7 @@
       <c r="K79" s="9"/>
       <c r="L79" s="9"/>
       <c r="M79" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N79" s="15" t="s">
@@ -3299,7 +3300,7 @@
       </c>
       <c r="O79" s="12"/>
     </row>
-    <row r="80" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9">
         <v>344</v>
       </c>
@@ -3319,7 +3320,7 @@
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
       <c r="M80" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N80" s="15" t="s">
@@ -3327,7 +3328,7 @@
       </c>
       <c r="O80" s="14"/>
     </row>
-    <row r="81" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="9">
         <v>108</v>
       </c>
@@ -3347,7 +3348,7 @@
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
       <c r="M81" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N81" s="15" t="s">
@@ -3355,7 +3356,7 @@
       </c>
       <c r="O81" s="14"/>
     </row>
-    <row r="82" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9">
         <v>115</v>
       </c>
@@ -3375,7 +3376,7 @@
       <c r="K82" s="9"/>
       <c r="L82" s="9"/>
       <c r="M82" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N82" s="15" t="s">
@@ -3383,7 +3384,7 @@
       </c>
       <c r="O82" s="14"/>
     </row>
-    <row r="83" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="9">
         <v>154</v>
       </c>
@@ -3403,7 +3404,7 @@
       <c r="K83" s="13"/>
       <c r="L83" s="13"/>
       <c r="M83" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N83" s="15" t="s">
@@ -3411,7 +3412,7 @@
       </c>
       <c r="O83" s="14"/>
     </row>
-    <row r="84" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="9">
         <v>165</v>
       </c>
@@ -3431,7 +3432,7 @@
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
       <c r="M84" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N84" s="15" t="s">
@@ -3439,7 +3440,7 @@
       </c>
       <c r="O84" s="12"/>
     </row>
-    <row r="85" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="9">
         <v>207</v>
       </c>
@@ -3459,7 +3460,7 @@
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
       <c r="M85" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N85" s="15" t="s">
@@ -3467,7 +3468,7 @@
       </c>
       <c r="O85" s="12"/>
     </row>
-    <row r="86" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="9">
         <v>252</v>
       </c>
@@ -3487,7 +3488,7 @@
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
       <c r="M86" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N86" s="15" t="s">
@@ -3495,7 +3496,7 @@
       </c>
       <c r="O86" s="14"/>
     </row>
-    <row r="87" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9">
         <v>302</v>
       </c>
@@ -3515,7 +3516,7 @@
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
       <c r="M87" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N87" s="15" t="s">
@@ -3523,7 +3524,7 @@
       </c>
       <c r="O87" s="12"/>
     </row>
-    <row r="88" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="9">
         <v>312</v>
       </c>
@@ -3543,7 +3544,7 @@
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
       <c r="M88" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N88" s="15" t="s">
@@ -3551,7 +3552,7 @@
       </c>
       <c r="O88" s="14"/>
     </row>
-    <row r="89" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="9">
         <v>334</v>
       </c>
@@ -3571,7 +3572,7 @@
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
       <c r="M89" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N89" s="15" t="s">
@@ -3579,7 +3580,7 @@
       </c>
       <c r="O89" s="12"/>
     </row>
-    <row r="90" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>380</v>
       </c>
@@ -3599,7 +3600,7 @@
       <c r="K90" s="13"/>
       <c r="L90" s="13"/>
       <c r="M90" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N90" s="15" t="s">
@@ -3607,7 +3608,7 @@
       </c>
       <c r="O90" s="12"/>
     </row>
-    <row r="91" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="13">
         <v>128</v>
       </c>
@@ -3627,7 +3628,7 @@
       <c r="K91" s="13"/>
       <c r="L91" s="13"/>
       <c r="M91" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N91" s="15" t="s">
@@ -3635,7 +3636,7 @@
       </c>
       <c r="O91" s="14"/>
     </row>
-    <row r="92" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="9">
         <v>129</v>
       </c>
@@ -3655,7 +3656,7 @@
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
       <c r="M92" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N92" s="15" t="s">
@@ -3663,7 +3664,7 @@
       </c>
       <c r="O92" s="14"/>
     </row>
-    <row r="93" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="9">
         <v>171</v>
       </c>
@@ -3683,7 +3684,7 @@
       <c r="K93" s="9"/>
       <c r="L93" s="9"/>
       <c r="M93" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N93" s="15" t="s">
@@ -3691,7 +3692,7 @@
       </c>
       <c r="O93" s="14"/>
     </row>
-    <row r="94" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="13">
         <v>183</v>
       </c>
@@ -3711,7 +3712,7 @@
       <c r="K94" s="9"/>
       <c r="L94" s="9"/>
       <c r="M94" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N94" s="15" t="s">
@@ -3719,7 +3720,7 @@
       </c>
       <c r="O94" s="14"/>
     </row>
-    <row r="95" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9">
         <v>236</v>
       </c>
@@ -3739,7 +3740,7 @@
       <c r="K95" s="13"/>
       <c r="L95" s="13"/>
       <c r="M95" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N95" s="15" t="s">
@@ -3747,7 +3748,7 @@
       </c>
       <c r="O95" s="14"/>
     </row>
-    <row r="96" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="13">
         <v>245</v>
       </c>
@@ -3767,7 +3768,7 @@
       <c r="K96" s="9"/>
       <c r="L96" s="9"/>
       <c r="M96" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N96" s="15" t="s">
@@ -3775,7 +3776,7 @@
       </c>
       <c r="O96" s="14"/>
     </row>
-    <row r="97" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9">
         <v>305</v>
       </c>
@@ -3795,7 +3796,7 @@
       <c r="K97" s="13"/>
       <c r="L97" s="13"/>
       <c r="M97" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N97" s="15" t="s">
@@ -3803,7 +3804,7 @@
       </c>
       <c r="O97" s="14"/>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B98" s="3"/>
       <c r="H98" s="13"/>
       <c r="I98" s="13"/>
@@ -3812,7 +3813,7 @@
       <c r="L98" s="13"/>
       <c r="M98" s="10"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B99" s="3"/>
       <c r="H99" s="13"/>
       <c r="I99" s="13"/>
@@ -3821,7 +3822,7 @@
       <c r="L99" s="13"/>
       <c r="M99" s="10"/>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B100" s="3"/>
       <c r="H100" s="13"/>
       <c r="I100" s="13"/>
@@ -3830,7 +3831,7 @@
       <c r="L100" s="13"/>
       <c r="M100" s="10"/>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B101" s="3"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
@@ -3839,7 +3840,7 @@
       <c r="L101" s="9"/>
       <c r="M101" s="10"/>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B102" s="3"/>
       <c r="H102" s="9"/>
       <c r="I102" s="9"/>
@@ -3848,7 +3849,7 @@
       <c r="L102" s="9"/>
       <c r="M102" s="10"/>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B103" s="3"/>
       <c r="H103" s="13"/>
       <c r="I103" s="13"/>
@@ -3857,7 +3858,7 @@
       <c r="L103" s="13"/>
       <c r="M103" s="10"/>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B104" s="3"/>
       <c r="H104" s="13"/>
       <c r="I104" s="13"/>
@@ -3866,7 +3867,7 @@
       <c r="L104" s="13"/>
       <c r="M104" s="10"/>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B105" s="3"/>
       <c r="H105" s="13"/>
       <c r="I105" s="13"/>
@@ -3875,7 +3876,7 @@
       <c r="L105" s="13"/>
       <c r="M105" s="10"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B106" s="3"/>
       <c r="H106" s="13"/>
       <c r="I106" s="13"/>
@@ -3884,7 +3885,7 @@
       <c r="L106" s="13"/>
       <c r="M106" s="10"/>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B107" s="3"/>
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
@@ -3893,7 +3894,7 @@
       <c r="L107" s="9"/>
       <c r="M107" s="10"/>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B108" s="3"/>
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
@@ -3902,7 +3903,7 @@
       <c r="L108" s="13"/>
       <c r="M108" s="10"/>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B109" s="3"/>
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
@@ -3911,7 +3912,7 @@
       <c r="L109" s="13"/>
       <c r="M109" s="10"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B110" s="3"/>
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
@@ -3920,7 +3921,7 @@
       <c r="L110" s="13"/>
       <c r="M110" s="10"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B111" s="3"/>
       <c r="H111" s="13"/>
       <c r="I111" s="13"/>
@@ -3929,7 +3930,7 @@
       <c r="L111" s="13"/>
       <c r="M111" s="10"/>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B112" s="3"/>
       <c r="H112" s="13"/>
       <c r="I112" s="13"/>
@@ -3938,7 +3939,7 @@
       <c r="L112" s="13"/>
       <c r="M112" s="10"/>
     </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" s="3"/>
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
@@ -3947,7 +3948,7 @@
       <c r="L113" s="13"/>
       <c r="M113" s="10"/>
     </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" s="3"/>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
@@ -3956,7 +3957,7 @@
       <c r="L114" s="13"/>
       <c r="M114" s="10"/>
     </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B115" s="3"/>
       <c r="H115" s="13"/>
       <c r="I115" s="13"/>
@@ -3965,7 +3966,7 @@
       <c r="L115" s="13"/>
       <c r="M115" s="10"/>
     </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B116" s="3"/>
       <c r="H116" s="13"/>
       <c r="I116" s="13"/>
@@ -3974,7 +3975,7 @@
       <c r="L116" s="13"/>
       <c r="M116" s="10"/>
     </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B117" s="3"/>
       <c r="H117" s="9"/>
       <c r="I117" s="9"/>
@@ -3983,7 +3984,7 @@
       <c r="L117" s="9"/>
       <c r="M117" s="10"/>
     </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" s="3"/>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
@@ -3992,7 +3993,7 @@
       <c r="L118" s="13"/>
       <c r="M118" s="10"/>
     </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B119" s="3"/>
       <c r="H119" s="13"/>
       <c r="I119" s="13"/>
@@ -4001,7 +4002,7 @@
       <c r="L119" s="13"/>
       <c r="M119" s="10"/>
     </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B120" s="3"/>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
@@ -4010,7 +4011,7 @@
       <c r="L120" s="13"/>
       <c r="M120" s="10"/>
     </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B121" s="3"/>
       <c r="H121" s="13"/>
       <c r="I121" s="13"/>
@@ -4019,7 +4020,7 @@
       <c r="L121" s="13"/>
       <c r="M121" s="10"/>
     </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B122" s="3"/>
       <c r="H122" s="13"/>
       <c r="I122" s="13"/>
@@ -4028,7 +4029,7 @@
       <c r="L122" s="13"/>
       <c r="M122" s="10"/>
     </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B123" s="3"/>
       <c r="H123" s="13"/>
       <c r="I123" s="13"/>
@@ -4037,7 +4038,7 @@
       <c r="L123" s="13"/>
       <c r="M123" s="10"/>
     </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B124" s="3"/>
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
@@ -4046,7 +4047,7 @@
       <c r="L124" s="13"/>
       <c r="M124" s="10"/>
     </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B125" s="3"/>
       <c r="H125" s="13"/>
       <c r="I125" s="13"/>
@@ -4055,7 +4056,7 @@
       <c r="L125" s="13"/>
       <c r="M125" s="10"/>
     </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B126" s="3"/>
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
@@ -4064,7 +4065,7 @@
       <c r="L126" s="13"/>
       <c r="M126" s="10"/>
     </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B127" s="3"/>
       <c r="H127" s="13"/>
       <c r="I127" s="13"/>
@@ -4073,7 +4074,7 @@
       <c r="L127" s="13"/>
       <c r="M127" s="10"/>
     </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B128" s="3"/>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
@@ -4082,7 +4083,7 @@
       <c r="L128" s="13"/>
       <c r="M128" s="10"/>
     </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B129" s="3"/>
       <c r="H129" s="13"/>
       <c r="I129" s="13"/>
@@ -4091,7 +4092,7 @@
       <c r="L129" s="13"/>
       <c r="M129" s="10"/>
     </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B130" s="3"/>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
@@ -4100,7 +4101,7 @@
       <c r="L130" s="13"/>
       <c r="M130" s="10"/>
     </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B131" s="3"/>
       <c r="H131" s="9"/>
       <c r="I131" s="9"/>
@@ -4109,7 +4110,7 @@
       <c r="L131" s="9"/>
       <c r="M131" s="10"/>
     </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B132" s="3"/>
       <c r="H132" s="13"/>
       <c r="I132" s="13"/>
@@ -4118,7 +4119,7 @@
       <c r="L132" s="13"/>
       <c r="M132" s="10"/>
     </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B133" s="3"/>
       <c r="H133" s="13"/>
       <c r="I133" s="13"/>
@@ -4127,7 +4128,7 @@
       <c r="L133" s="13"/>
       <c r="M133" s="10"/>
     </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B134" s="3"/>
       <c r="H134" s="13"/>
       <c r="I134" s="13"/>
@@ -4136,7 +4137,7 @@
       <c r="L134" s="13"/>
       <c r="M134" s="10"/>
     </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B135" s="3"/>
       <c r="H135" s="13"/>
       <c r="I135" s="13"/>
@@ -4145,7 +4146,7 @@
       <c r="L135" s="13"/>
       <c r="M135" s="10"/>
     </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B136" s="3"/>
       <c r="H136" s="13"/>
       <c r="I136" s="13"/>
@@ -4154,7 +4155,7 @@
       <c r="L136" s="13"/>
       <c r="M136" s="10"/>
     </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B137" s="3"/>
       <c r="H137" s="9"/>
       <c r="I137" s="9"/>
@@ -4163,7 +4164,7 @@
       <c r="L137" s="9"/>
       <c r="M137" s="10"/>
     </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B138" s="3"/>
       <c r="H138" s="13"/>
       <c r="I138" s="13"/>
@@ -4172,7 +4173,7 @@
       <c r="L138" s="13"/>
       <c r="M138" s="10"/>
     </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B139" s="3"/>
       <c r="H139" s="13"/>
       <c r="I139" s="13"/>
@@ -4181,7 +4182,7 @@
       <c r="L139" s="13"/>
       <c r="M139" s="10"/>
     </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B140" s="3"/>
       <c r="H140" s="9"/>
       <c r="I140" s="9"/>
@@ -4190,7 +4191,7 @@
       <c r="L140" s="9"/>
       <c r="M140" s="10"/>
     </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B141" s="3"/>
       <c r="H141" s="13"/>
       <c r="I141" s="13"/>
@@ -4199,7 +4200,7 @@
       <c r="L141" s="13"/>
       <c r="M141" s="10"/>
     </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B142" s="3"/>
       <c r="H142" s="13"/>
       <c r="I142" s="13"/>
@@ -4208,7 +4209,7 @@
       <c r="L142" s="13"/>
       <c r="M142" s="10"/>
     </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B143" s="3"/>
       <c r="H143" s="13"/>
       <c r="I143" s="13"/>
@@ -4217,7 +4218,7 @@
       <c r="L143" s="13"/>
       <c r="M143" s="10"/>
     </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B144" s="3"/>
       <c r="H144" s="9"/>
       <c r="I144" s="9"/>
@@ -4226,7 +4227,7 @@
       <c r="L144" s="9"/>
       <c r="M144" s="10"/>
     </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B145" s="3"/>
       <c r="H145" s="9"/>
       <c r="I145" s="9"/>
@@ -4235,7 +4236,7 @@
       <c r="L145" s="9"/>
       <c r="M145" s="10"/>
     </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B146" s="3"/>
       <c r="H146" s="13"/>
       <c r="I146" s="13"/>
@@ -4244,7 +4245,7 @@
       <c r="L146" s="13"/>
       <c r="M146" s="10"/>
     </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B147" s="3"/>
       <c r="H147" s="13"/>
       <c r="I147" s="13"/>
@@ -4253,7 +4254,7 @@
       <c r="L147" s="13"/>
       <c r="M147" s="10"/>
     </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B148" s="3"/>
       <c r="H148" s="13"/>
       <c r="I148" s="13"/>
@@ -4262,7 +4263,7 @@
       <c r="L148" s="13"/>
       <c r="M148" s="10"/>
     </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B149" s="3"/>
       <c r="H149" s="9"/>
       <c r="I149" s="9"/>
@@ -4271,7 +4272,7 @@
       <c r="L149" s="9"/>
       <c r="M149" s="10"/>
     </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B150" s="3"/>
       <c r="H150" s="9"/>
       <c r="I150" s="9"/>
@@ -4280,7 +4281,7 @@
       <c r="L150" s="9"/>
       <c r="M150" s="10"/>
     </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B151" s="3"/>
       <c r="H151" s="13"/>
       <c r="I151" s="13"/>
@@ -4289,7 +4290,7 @@
       <c r="L151" s="13"/>
       <c r="M151" s="10"/>
     </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B152" s="3"/>
       <c r="H152" s="13"/>
       <c r="I152" s="13"/>
@@ -4298,7 +4299,7 @@
       <c r="L152" s="13"/>
       <c r="M152" s="10"/>
     </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B153" s="3"/>
       <c r="H153" s="13"/>
       <c r="I153" s="13"/>
@@ -4307,7 +4308,7 @@
       <c r="L153" s="13"/>
       <c r="M153" s="10"/>
     </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B154" s="3"/>
       <c r="H154" s="13"/>
       <c r="I154" s="13"/>
@@ -4316,7 +4317,7 @@
       <c r="L154" s="13"/>
       <c r="M154" s="10"/>
     </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B155" s="3"/>
       <c r="H155" s="9"/>
       <c r="I155" s="9"/>
@@ -4325,7 +4326,7 @@
       <c r="L155" s="9"/>
       <c r="M155" s="10"/>
     </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B156" s="3"/>
       <c r="H156" s="13"/>
       <c r="I156" s="13"/>
@@ -4334,7 +4335,7 @@
       <c r="L156" s="13"/>
       <c r="M156" s="10"/>
     </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B157" s="3"/>
       <c r="H157" s="13"/>
       <c r="I157" s="13"/>
@@ -4343,7 +4344,7 @@
       <c r="L157" s="13"/>
       <c r="M157" s="10"/>
     </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B158" s="3"/>
       <c r="H158" s="13"/>
       <c r="I158" s="13"/>
@@ -4352,7 +4353,7 @@
       <c r="L158" s="13"/>
       <c r="M158" s="10"/>
     </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B159" s="3"/>
       <c r="H159" s="13"/>
       <c r="I159" s="13"/>
@@ -4361,7 +4362,7 @@
       <c r="L159" s="13"/>
       <c r="M159" s="10"/>
     </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B160" s="3"/>
       <c r="H160" s="13"/>
       <c r="I160" s="13"/>
@@ -4370,7 +4371,7 @@
       <c r="L160" s="13"/>
       <c r="M160" s="10"/>
     </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B161" s="3"/>
       <c r="H161" s="13"/>
       <c r="I161" s="13"/>
@@ -4379,7 +4380,7 @@
       <c r="L161" s="13"/>
       <c r="M161" s="10"/>
     </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B162" s="3"/>
       <c r="H162" s="13"/>
       <c r="I162" s="13"/>
@@ -4388,7 +4389,7 @@
       <c r="L162" s="13"/>
       <c r="M162" s="10"/>
     </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B163" s="3"/>
       <c r="H163" s="13"/>
       <c r="I163" s="13"/>
@@ -4397,7 +4398,7 @@
       <c r="L163" s="13"/>
       <c r="M163" s="10"/>
     </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B164" s="3"/>
       <c r="H164" s="13"/>
       <c r="I164" s="13"/>
@@ -4406,7 +4407,7 @@
       <c r="L164" s="13"/>
       <c r="M164" s="10"/>
     </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B165" s="3"/>
       <c r="H165" s="13"/>
       <c r="I165" s="13"/>
@@ -4415,7 +4416,7 @@
       <c r="L165" s="13"/>
       <c r="M165" s="10"/>
     </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B166" s="3"/>
       <c r="H166" s="13"/>
       <c r="I166" s="13"/>
@@ -4424,7 +4425,7 @@
       <c r="L166" s="13"/>
       <c r="M166" s="10"/>
     </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B167" s="3"/>
       <c r="H167" s="13"/>
       <c r="I167" s="13"/>
@@ -4433,7 +4434,7 @@
       <c r="L167" s="13"/>
       <c r="M167" s="10"/>
     </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B168" s="3"/>
       <c r="H168" s="13"/>
       <c r="I168" s="13"/>
@@ -4442,7 +4443,7 @@
       <c r="L168" s="13"/>
       <c r="M168" s="10"/>
     </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B169" s="3"/>
       <c r="H169" s="13"/>
       <c r="I169" s="13"/>
@@ -4451,7 +4452,7 @@
       <c r="L169" s="13"/>
       <c r="M169" s="10"/>
     </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B170" s="3"/>
       <c r="H170" s="13"/>
       <c r="I170" s="13"/>
@@ -4460,7 +4461,7 @@
       <c r="L170" s="13"/>
       <c r="M170" s="10"/>
     </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B171" s="3"/>
       <c r="H171" s="13"/>
       <c r="I171" s="13"/>
@@ -4469,7 +4470,7 @@
       <c r="L171" s="13"/>
       <c r="M171" s="10"/>
     </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B172" s="3"/>
       <c r="H172" s="13"/>
       <c r="I172" s="13"/>
@@ -4478,7 +4479,7 @@
       <c r="L172" s="13"/>
       <c r="M172" s="10"/>
     </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B173" s="3"/>
       <c r="H173" s="13"/>
       <c r="I173" s="13"/>
@@ -4487,7 +4488,7 @@
       <c r="L173" s="13"/>
       <c r="M173" s="10"/>
     </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B174" s="3"/>
       <c r="H174" s="13"/>
       <c r="I174" s="13"/>
@@ -4496,7 +4497,7 @@
       <c r="L174" s="13"/>
       <c r="M174" s="10"/>
     </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B175" s="3"/>
       <c r="H175" s="13"/>
       <c r="I175" s="13"/>
@@ -4505,7 +4506,7 @@
       <c r="L175" s="13"/>
       <c r="M175" s="10"/>
     </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B176" s="3"/>
       <c r="H176" s="13"/>
       <c r="I176" s="13"/>
@@ -4514,83 +4515,82 @@
       <c r="L176" s="13"/>
       <c r="M176" s="10"/>
     </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="3"/>
     </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="3"/>
     </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="3"/>
     </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="3"/>
     </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="3"/>
     </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="3"/>
     </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="3"/>
     </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="3"/>
     </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="3"/>
     </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="3"/>
     </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="3"/>
     </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="3"/>
     </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="3"/>
     </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="3"/>
     </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="3"/>
     </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="3"/>
     </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="3"/>
     </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="3"/>
     </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="3"/>
     </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="3"/>
     </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="3"/>
     </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="3"/>
     </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="3"/>
     </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="3"/>
     </row>
   </sheetData>
-  <sortState ref="A4:J303">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J303">
     <sortCondition descending="1" ref="C4:C303"/>
     <sortCondition descending="1" ref="D4:D303"/>
-    <sortCondition descending="1" ref="E4:E303"/>
     <sortCondition descending="1" ref="F4:F303"/>
     <sortCondition descending="1" ref="G4:G303"/>
     <sortCondition ref="B4:B303"/>
@@ -4601,8 +4601,8 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B1:B3"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
@@ -4612,27 +4612,27 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="G1:G2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:A57 N4:N97 B4:B97">
+  <conditionalFormatting sqref="A20:A30 A36:A62 N4:N97 A4:B19 B20:B97">
     <cfRule type="cellIs" dxfId="15" priority="109" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O25:O27 O29:O32">
+  <conditionalFormatting sqref="O41:O43 O45:O48">
     <cfRule type="cellIs" dxfId="14" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O28">
+  <conditionalFormatting sqref="O44">
     <cfRule type="cellIs" dxfId="13" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O33">
+  <conditionalFormatting sqref="O49">
     <cfRule type="cellIs" dxfId="12" priority="103" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O25:O33">
+  <conditionalFormatting sqref="O41:O49">
     <cfRule type="cellIs" dxfId="11" priority="102" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -4652,7 +4652,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A82 A58:A73">
+  <conditionalFormatting sqref="A82 A31:A73">
     <cfRule type="cellIs" dxfId="7" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -4667,7 +4667,7 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N82 N58:N73">
+  <conditionalFormatting sqref="N82 N31:N73">
     <cfRule type="cellIs" dxfId="4" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -4693,100 +4693,100 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="N17" r:id="rId1"/>
-    <hyperlink ref="N14" r:id="rId2"/>
-    <hyperlink ref="N80" r:id="rId3"/>
-    <hyperlink ref="N13" r:id="rId4"/>
-    <hyperlink ref="N77" r:id="rId5"/>
-    <hyperlink ref="N97" r:id="rId6"/>
-    <hyperlink ref="N39" r:id="rId7"/>
-    <hyperlink ref="N27" r:id="rId8"/>
-    <hyperlink ref="N57" r:id="rId9"/>
-    <hyperlink ref="N78" r:id="rId10"/>
-    <hyperlink ref="N8" r:id="rId11"/>
-    <hyperlink ref="N19" r:id="rId12"/>
-    <hyperlink ref="N87" r:id="rId13"/>
-    <hyperlink ref="N15" r:id="rId14"/>
-    <hyperlink ref="N56" r:id="rId15"/>
-    <hyperlink ref="N86" r:id="rId16"/>
-    <hyperlink ref="N26" r:id="rId17"/>
-    <hyperlink ref="N18" r:id="rId18"/>
-    <hyperlink ref="N55" r:id="rId19"/>
-    <hyperlink ref="N6" r:id="rId20"/>
-    <hyperlink ref="N83" r:id="rId21"/>
-    <hyperlink ref="N47" r:id="rId22"/>
-    <hyperlink ref="N43" r:id="rId23"/>
-    <hyperlink ref="N85" r:id="rId24"/>
-    <hyperlink ref="N41" r:id="rId25"/>
-    <hyperlink ref="N58" r:id="rId26"/>
-    <hyperlink ref="N5" r:id="rId27"/>
-    <hyperlink ref="N42" r:id="rId28"/>
-    <hyperlink ref="N54" r:id="rId29"/>
-    <hyperlink ref="N4" r:id="rId30"/>
-    <hyperlink ref="N84" r:id="rId31"/>
-    <hyperlink ref="N66" r:id="rId32"/>
-    <hyperlink ref="N40" r:id="rId33"/>
-    <hyperlink ref="N37" r:id="rId34"/>
-    <hyperlink ref="N92" r:id="rId35"/>
-    <hyperlink ref="N38" r:id="rId36"/>
-    <hyperlink ref="N64" r:id="rId37"/>
-    <hyperlink ref="N65" r:id="rId38"/>
-    <hyperlink ref="N95" r:id="rId39"/>
-    <hyperlink ref="N21" r:id="rId40"/>
-    <hyperlink ref="N89" r:id="rId41"/>
-    <hyperlink ref="N24" r:id="rId42"/>
-    <hyperlink ref="N81" r:id="rId43"/>
-    <hyperlink ref="N34" r:id="rId44"/>
-    <hyperlink ref="N23" r:id="rId45"/>
-    <hyperlink ref="N36" r:id="rId46"/>
-    <hyperlink ref="N22" r:id="rId47"/>
-    <hyperlink ref="N35" r:id="rId48"/>
-    <hyperlink ref="N25" r:id="rId49"/>
-    <hyperlink ref="N73" r:id="rId50"/>
-    <hyperlink ref="N72" r:id="rId51"/>
-    <hyperlink ref="N69" r:id="rId52"/>
-    <hyperlink ref="N28" r:id="rId53"/>
-    <hyperlink ref="N67" r:id="rId54"/>
-    <hyperlink ref="N20" r:id="rId55"/>
-    <hyperlink ref="N29" r:id="rId56"/>
-    <hyperlink ref="N93" r:id="rId57"/>
-    <hyperlink ref="N76" r:id="rId58"/>
-    <hyperlink ref="N45" r:id="rId59"/>
-    <hyperlink ref="N59" r:id="rId60"/>
-    <hyperlink ref="N74" r:id="rId61"/>
-    <hyperlink ref="N79" r:id="rId62"/>
-    <hyperlink ref="N48" r:id="rId63"/>
-    <hyperlink ref="N46" r:id="rId64"/>
-    <hyperlink ref="N53" r:id="rId65"/>
-    <hyperlink ref="N12" r:id="rId66"/>
-    <hyperlink ref="N44" r:id="rId67"/>
-    <hyperlink ref="N68" r:id="rId68"/>
-    <hyperlink ref="N71" r:id="rId69"/>
-    <hyperlink ref="N51" r:id="rId70"/>
-    <hyperlink ref="N62" r:id="rId71"/>
-    <hyperlink ref="N11" r:id="rId72"/>
-    <hyperlink ref="N49" r:id="rId73"/>
-    <hyperlink ref="N31" r:id="rId74"/>
-    <hyperlink ref="N32" r:id="rId75"/>
-    <hyperlink ref="N50" r:id="rId76"/>
-    <hyperlink ref="N30" r:id="rId77"/>
-    <hyperlink ref="N7" r:id="rId78"/>
-    <hyperlink ref="N16" r:id="rId79"/>
-    <hyperlink ref="N60" r:id="rId80"/>
-    <hyperlink ref="N9" r:id="rId81"/>
-    <hyperlink ref="N52" r:id="rId82"/>
-    <hyperlink ref="N33" r:id="rId83"/>
-    <hyperlink ref="N88" r:id="rId84"/>
-    <hyperlink ref="N70" r:id="rId85"/>
-    <hyperlink ref="N75" r:id="rId86"/>
-    <hyperlink ref="N82" r:id="rId87"/>
-    <hyperlink ref="N91" r:id="rId88"/>
-    <hyperlink ref="N61" r:id="rId89"/>
-    <hyperlink ref="N94" r:id="rId90"/>
-    <hyperlink ref="N63" r:id="rId91"/>
-    <hyperlink ref="N96" r:id="rId92"/>
-    <hyperlink ref="N10" r:id="rId93"/>
-    <hyperlink ref="N90" r:id="rId94"/>
+    <hyperlink ref="N17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="N14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="N80" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="N13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="N77" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N97" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="N55" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="N43" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="N30" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="N78" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="N8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="N19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="N87" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="N15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="N29" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="N86" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="N42" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="N18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="N28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="N6" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="N83" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="N20" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="N59" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="N85" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="N57" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="N31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="N5" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="N58" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="N27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="N4" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="N84" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="N66" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="N56" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="N53" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="N92" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="N54" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="N64" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="N65" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="N95" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="N37" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="N89" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="N40" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="N81" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="N50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="N39" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="N52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="N38" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="N51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="N41" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="N73" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="N72" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="N69" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="N44" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="N67" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="N36" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="N45" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="N93" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="N76" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="N61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="N32" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="N74" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="N79" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="N21" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="N62" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="N26" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="N12" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="N60" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="N68" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="N71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="N24" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="N35" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="N11" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="N22" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="N47" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="N48" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="N23" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="N46" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="N7" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="N16" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="N33" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="N9" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="N25" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="N49" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="N88" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="N70" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="N75" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="N82" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="N91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="N34" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="N94" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="N63" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="N96" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="N10" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="N90" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId95"/>

--- a/level-2/codeforces-phase-2-2/codeforces-phase-2-2.xlsx
+++ b/level-2/codeforces-phase-2-2/codeforces-phase-2-2.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08BB908-D3FD-48F8-AFC6-2A4CBFA54EE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F818D6-F6DC-4ED5-B8F4-A95C3B39219C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
   <si>
     <t xml:space="preserve">Round Number </t>
   </si>
@@ -67,15 +67,6 @@
     <t>http://codeforces.com/problemset/problem/567/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/621/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/707/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/766/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/146/B</t>
   </si>
   <si>
@@ -118,24 +109,12 @@
     <t>http://codeforces.com/problemset/problem/408/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/545/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/554/B</t>
   </si>
   <si>
     <t>http://codeforces.com/problemset/problem/591/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/712/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/754/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/758/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/151/B</t>
   </si>
   <si>
@@ -199,135 +178,36 @@
     <t>http://codeforces.com/problemset/problem/570/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/586/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/610/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/617/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/631/B</t>
   </si>
   <si>
     <t>http://codeforces.com/problemset/problem/738/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/289/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/471/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/479/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/486/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/515/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/572/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/579/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/141/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/189/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/197/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/248/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/257/B</t>
   </si>
   <si>
     <t>http://codeforces.com/problemset/problem/271/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/272/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/337/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/359/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/371/B</t>
   </si>
   <si>
     <t>http://codeforces.com/problemset/problem/450/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/507/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/514/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/228/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/276/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/152/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/175/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/203/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/205/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/253/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/270/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/279/B</t>
-  </si>
-  <si>
     <t>http://codeforces.com/problemset/problem/304/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/357/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/402/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/430/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/441/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/544/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/548/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/558/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/604/B</t>
-  </si>
-  <si>
     <t>brute force</t>
   </si>
   <si>
@@ -347,6 +227,237 @@
   </si>
   <si>
     <t>Learning Time in (min)</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/387/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/432/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/439/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/569/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/651/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/315/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/433/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/701/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/959/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/879/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/129/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/902/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/998/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/143/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/255/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/47/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1015/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/133/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/989/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/5/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/716/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/965/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/99/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/61/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/798/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/957/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/828/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/186/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/401/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/424/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/431/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/456/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/492/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/740/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/743/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/776/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/9/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/854/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/80/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/112/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/78/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/59/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/794/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/131/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/302/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/361/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/583/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/682/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/714/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/262/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/285/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/327/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/4/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/811/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/899/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1006/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1013/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/63/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/872/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/892/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/914/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/69/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/934/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/144/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/246/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/366/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/546/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/931/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/38/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/48/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/1011/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/416/B</t>
+  </si>
+  <si>
+    <t>http://codeforces.com/problemset/problem/485/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/897/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/807/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/887/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/922/B</t>
   </si>
 </sst>
 </file>
@@ -594,7 +705,14 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="17">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1017,25 +1135,25 @@
         <v>7</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>2</v>
@@ -1066,23 +1184,23 @@
       <c r="A3" s="20"/>
       <c r="B3" s="5">
         <f>SUM(B4:B788)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5">
         <f>SUM(C4:C788)</f>
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5">
         <f>SUM(D4:D788)</f>
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E3" s="5">
         <f>SUM(E4:E788)</f>
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F3" s="5">
         <f>SUM(F4:F788)</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G3" s="6" t="e">
         <f t="shared" ref="G3:L3" si="0">AVERAGE(G4:G176)</f>
@@ -1110,7 +1228,7 @@
       </c>
       <c r="M3" s="5">
         <f>COUNTA(M4:M788)</f>
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="N3" s="6">
         <f>COUNTA(N4:N792)</f>
@@ -1119,7 +1237,7 @@
     </row>
     <row r="4" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
-        <v>136</v>
+        <v>227</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
@@ -1138,13 +1256,13 @@
         <v>0</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -1163,13 +1281,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="B6" s="7">
         <v>1</v>
@@ -1188,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="N6" s="10"/>
     </row>
     <row r="7" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7">
-        <v>192</v>
+        <v>315</v>
       </c>
       <c r="B7" s="7">
         <v>1</v>
@@ -1213,13 +1331,13 @@
         <v>0</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="N7" s="10"/>
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
-        <v>204</v>
+        <v>345</v>
       </c>
       <c r="B8" s="7">
         <v>1</v>
@@ -1238,13 +1356,13 @@
         <v>0</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="N8" s="10"/>
     </row>
     <row r="9" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="B9" s="7">
         <v>1</v>
@@ -1263,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="N9" s="10"/>
     </row>
     <row r="10" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
-        <v>314</v>
+        <v>248</v>
       </c>
       <c r="B10" s="7">
         <v>1</v>
@@ -1288,13 +1406,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
-        <v>341</v>
+        <v>364</v>
       </c>
       <c r="B11" s="7">
         <v>1</v>
@@ -1313,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="N11" s="10"/>
     </row>
     <row r="12" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
-        <v>368</v>
+        <v>473</v>
       </c>
       <c r="B12" s="7">
         <v>1</v>
@@ -1338,13 +1456,13 @@
         <v>0</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="N12" s="10"/>
     </row>
     <row r="13" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
-        <v>177</v>
+        <v>443</v>
       </c>
       <c r="B13" s="7">
         <v>1</v>
@@ -1363,13 +1481,13 @@
         <v>0</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="N13" s="10"/>
     </row>
     <row r="14" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
-        <v>269</v>
+        <v>94</v>
       </c>
       <c r="B14" s="7">
         <v>1</v>
@@ -1388,13 +1506,13 @@
         <v>0</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
-        <v>274</v>
+        <v>453</v>
       </c>
       <c r="B15" s="7">
         <v>1</v>
@@ -1413,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
-        <v>277</v>
+        <v>493</v>
       </c>
       <c r="B16" s="7">
         <v>1</v>
@@ -1438,13 +1556,13 @@
         <v>0</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
-        <v>292</v>
+        <v>136</v>
       </c>
       <c r="B17" s="7">
         <v>1</v>
@@ -1463,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
-        <v>317</v>
+        <v>137</v>
       </c>
       <c r="B18" s="7">
         <v>1</v>
@@ -1488,13 +1606,13 @@
         <v>0</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>69</v>
+        <v>9</v>
       </c>
       <c r="N18" s="10"/>
     </row>
     <row r="19" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
-        <v>320</v>
+        <v>146</v>
       </c>
       <c r="B19" s="7">
         <v>1</v>
@@ -1513,18 +1631,18 @@
         <v>0</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="N19" s="10"/>
     </row>
     <row r="20" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
-        <v>239</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B20" s="7">
+        <v>1</v>
+      </c>
+      <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -1538,18 +1656,18 @@
         <v>0</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7">
-        <v>303</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B21" s="7">
+        <v>1</v>
+      </c>
+      <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -1563,18 +1681,18 @@
         <v>0</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="N21" s="10"/>
     </row>
     <row r="22" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
-        <v>309</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7">
-        <v>1</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B22" s="7">
+        <v>1</v>
+      </c>
+      <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
@@ -1588,18 +1706,18 @@
         <v>0</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="N22" s="10"/>
     </row>
     <row r="23" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
-        <v>327</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7">
-        <v>1</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
@@ -1613,13 +1731,13 @@
         <v>0</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7">
-        <v>370</v>
+        <v>102</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7">
@@ -1638,13 +1756,13 @@
         <v>0</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>35</v>
+        <v>82</v>
       </c>
       <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7">
-        <v>390</v>
+        <v>156</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" s="7">
@@ -1663,13 +1781,13 @@
         <v>0</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="N25" s="10"/>
     </row>
     <row r="26" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7">
-        <v>392</v>
+        <v>239</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7">
@@ -1688,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="N26" s="10"/>
     </row>
     <row r="27" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7">
-        <v>107</v>
+        <v>309</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" s="7">
@@ -1713,13 +1831,13 @@
         <v>0</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N27" s="12"/>
     </row>
     <row r="28" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" s="7">
@@ -1738,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7">
-        <v>188</v>
+        <v>107</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" s="7">
@@ -1763,13 +1881,13 @@
         <v>0</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N29" s="10"/>
     </row>
     <row r="30" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" s="7">
@@ -1788,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="N30" s="10"/>
     </row>
     <row r="31" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7">
@@ -1813,13 +1931,13 @@
         <v>0</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="N31" s="10"/>
     </row>
     <row r="32" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" s="7">
@@ -1838,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="N32" s="10"/>
     </row>
@@ -1863,13 +1981,13 @@
         <v>0</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N33" s="12"/>
     </row>
     <row r="34" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7">
@@ -1894,7 +2012,7 @@
     </row>
     <row r="35" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7">
-        <v>169</v>
+        <v>501</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7">
@@ -1919,13 +2037,13 @@
     </row>
     <row r="36" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7">
-        <v>396</v>
+        <v>96</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7">
-        <v>1</v>
-      </c>
+      <c r="C36" s="7">
+        <v>1</v>
+      </c>
+      <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -1938,19 +2056,19 @@
         <v>0</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="N36" s="10"/>
     </row>
     <row r="37" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7">
-        <v>104</v>
+        <v>487</v>
       </c>
       <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7">
-        <v>1</v>
-      </c>
+      <c r="C37" s="7">
+        <v>1</v>
+      </c>
+      <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="11"/>
@@ -1963,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="N37" s="10"/>
     </row>
     <row r="38" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7">
-        <v>1</v>
-      </c>
+      <c r="C38" s="7">
+        <v>1</v>
+      </c>
+      <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -1988,19 +2106,19 @@
         <v>0</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="N38" s="10"/>
     </row>
     <row r="39" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7">
-        <v>1</v>
-      </c>
+      <c r="C39" s="7">
+        <v>1</v>
+      </c>
+      <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -2013,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="N39" s="12"/>
     </row>
     <row r="40" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7">
-        <v>132</v>
+        <v>272</v>
       </c>
       <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7">
-        <v>1</v>
-      </c>
+      <c r="C40" s="7">
+        <v>1</v>
+      </c>
+      <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -2038,19 +2156,19 @@
         <v>0</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="N40" s="10"/>
     </row>
     <row r="41" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7">
-        <v>1</v>
-      </c>
+      <c r="C41" s="7">
+        <v>1</v>
+      </c>
+      <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -2063,19 +2181,19 @@
         <v>0</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="N41" s="10"/>
     </row>
     <row r="42" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7">
-        <v>185</v>
+        <v>372</v>
       </c>
       <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7">
-        <v>1</v>
-      </c>
+      <c r="C42" s="7">
+        <v>1</v>
+      </c>
+      <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -2088,19 +2206,19 @@
         <v>0</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7">
-        <v>200</v>
+        <v>476</v>
       </c>
       <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7">
-        <v>1</v>
-      </c>
+      <c r="C43" s="7">
+        <v>1</v>
+      </c>
+      <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -2113,19 +2231,19 @@
         <v>0</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="N43" s="12"/>
     </row>
     <row r="44" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7">
-        <v>1</v>
-      </c>
+      <c r="C44" s="7">
+        <v>1</v>
+      </c>
+      <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -2138,19 +2256,19 @@
         <v>0</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="N44" s="10"/>
     </row>
     <row r="45" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7">
-        <v>308</v>
+        <v>57</v>
       </c>
       <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7">
-        <v>1</v>
-      </c>
+      <c r="C45" s="7">
+        <v>1</v>
+      </c>
+      <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -2163,19 +2281,19 @@
         <v>0</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="N45" s="10"/>
     </row>
     <row r="46" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7">
-        <v>313</v>
+        <v>410</v>
       </c>
       <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7">
-        <v>1</v>
-      </c>
+      <c r="C46" s="7">
+        <v>1</v>
+      </c>
+      <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="11"/>
@@ -2188,19 +2306,19 @@
         <v>0</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="N46" s="10"/>
     </row>
     <row r="47" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7">
-        <v>357</v>
+        <v>472</v>
       </c>
       <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7">
-        <v>1</v>
-      </c>
+      <c r="C47" s="7">
+        <v>1</v>
+      </c>
+      <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="11"/>
@@ -2213,19 +2331,19 @@
         <v>0</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="N47" s="12"/>
     </row>
     <row r="48" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7">
-        <v>1</v>
-      </c>
+      <c r="C48" s="7">
+        <v>1</v>
+      </c>
+      <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -2238,13 +2356,13 @@
         <v>0</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="N48" s="10"/>
     </row>
     <row r="49" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7">
-        <v>394</v>
+        <v>118</v>
       </c>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -2263,13 +2381,13 @@
         <v>0</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="N49" s="10"/>
     </row>
     <row r="50" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7">
-        <v>101</v>
+        <v>235</v>
       </c>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2288,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="M50" s="13" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="N50" s="10"/>
     </row>
     <row r="51" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
-        <v>119</v>
+        <v>242</v>
       </c>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2313,13 +2431,13 @@
         <v>0</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="N51" s="10"/>
     </row>
     <row r="52" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2338,13 +2456,13 @@
         <v>0</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="N52" s="10"/>
     </row>
     <row r="53" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7">
-        <v>152</v>
+        <v>260</v>
       </c>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2363,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="N53" s="12"/>
     </row>
     <row r="54" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2388,13 +2506,13 @@
         <v>0</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="N54" s="12"/>
     </row>
     <row r="55" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7">
-        <v>166</v>
+        <v>381</v>
       </c>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2413,13 +2531,13 @@
         <v>0</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="N55" s="12"/>
     </row>
     <row r="56" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7">
-        <v>167</v>
+        <v>384</v>
       </c>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2438,13 +2556,13 @@
         <v>0</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="N56" s="12"/>
     </row>
     <row r="57" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7">
-        <v>196</v>
+        <v>400</v>
       </c>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2463,13 +2581,13 @@
         <v>0</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="N57" s="10"/>
     </row>
     <row r="58" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7">
-        <v>209</v>
+        <v>122</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2488,13 +2606,13 @@
         <v>0</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="N58" s="12"/>
     </row>
     <row r="59" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2513,13 +2631,13 @@
         <v>0</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="N59" s="12"/>
     </row>
     <row r="60" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7">
-        <v>257</v>
+        <v>308</v>
       </c>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2538,13 +2656,13 @@
         <v>0</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="N60" s="10"/>
     </row>
     <row r="61" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2563,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="N61" s="12"/>
     </row>
     <row r="62" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7">
-        <v>291</v>
+        <v>388</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2588,20 +2706,20 @@
         <v>0</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="N62" s="12"/>
     </row>
     <row r="63" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
-        <v>217</v>
+        <v>9</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7">
-        <v>1</v>
-      </c>
+      <c r="D63" s="7">
+        <v>1</v>
+      </c>
+      <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
@@ -2613,20 +2731,20 @@
         <v>0</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="N63" s="12"/>
     </row>
     <row r="64" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7">
-        <v>221</v>
+        <v>433</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7">
-        <v>1</v>
-      </c>
+      <c r="D64" s="7">
+        <v>1</v>
+      </c>
+      <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
@@ -2638,20 +2756,20 @@
         <v>0</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="N64" s="12"/>
     </row>
     <row r="65" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7">
-        <v>222</v>
+        <v>69</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7">
-        <v>1</v>
-      </c>
+      <c r="D65" s="7">
+        <v>1</v>
+      </c>
+      <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -2663,20 +2781,20 @@
         <v>0</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="N65" s="12"/>
     </row>
     <row r="66" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7">
-        <v>243</v>
+        <v>85</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7">
-        <v>1</v>
-      </c>
+      <c r="D66" s="7">
+        <v>1</v>
+      </c>
+      <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -2688,20 +2806,20 @@
         <v>0</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>48</v>
+        <v>108</v>
       </c>
       <c r="N66" s="10"/>
     </row>
     <row r="67" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7">
-        <v>258</v>
+        <v>70</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7">
-        <v>1</v>
-      </c>
+      <c r="D67" s="7">
+        <v>1</v>
+      </c>
+      <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
@@ -2713,20 +2831,20 @@
         <v>0</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="N67" s="12"/>
     </row>
     <row r="68" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7">
-        <v>259</v>
+        <v>55</v>
       </c>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7">
-        <v>1</v>
-      </c>
+      <c r="D68" s="7">
+        <v>1</v>
+      </c>
+      <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
@@ -2738,20 +2856,20 @@
         <v>0</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="N68" s="12"/>
     </row>
     <row r="69" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7">
-        <v>261</v>
+        <v>414</v>
       </c>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7">
-        <v>1</v>
-      </c>
+      <c r="D69" s="7">
+        <v>1</v>
+      </c>
+      <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
@@ -2763,20 +2881,20 @@
         <v>0</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="N69" s="10"/>
     </row>
     <row r="70" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7">
-        <v>268</v>
+        <v>95</v>
       </c>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
-      <c r="D70" s="7"/>
-      <c r="E70" s="7">
-        <v>1</v>
-      </c>
+      <c r="D70" s="7">
+        <v>1</v>
+      </c>
+      <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
@@ -2788,20 +2906,20 @@
         <v>0</v>
       </c>
       <c r="M70" s="13" t="s">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="N70" s="10"/>
     </row>
     <row r="71" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7">
-        <v>270</v>
+        <v>104</v>
       </c>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7">
-        <v>1</v>
-      </c>
+      <c r="D71" s="7">
+        <v>1</v>
+      </c>
+      <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
@@ -2813,20 +2931,20 @@
         <v>0</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="N71" s="10"/>
     </row>
     <row r="72" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7">
-        <v>271</v>
+        <v>123</v>
       </c>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
-      <c r="E72" s="7">
-        <v>1</v>
-      </c>
+      <c r="D72" s="7">
+        <v>1</v>
+      </c>
+      <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
@@ -2834,24 +2952,24 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="8">
-        <f t="shared" ref="L72:L97" si="3">SUM(G72:K72)</f>
+        <f t="shared" ref="L72:L135" si="3">SUM(G72:K72)</f>
         <v>0</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="N72" s="10"/>
     </row>
     <row r="73" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="7">
-        <v>277.5</v>
+        <v>132</v>
       </c>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7">
-        <v>1</v>
-      </c>
+      <c r="D73" s="7">
+        <v>1</v>
+      </c>
+      <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -2863,20 +2981,20 @@
         <v>0</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="N73" s="12"/>
     </row>
     <row r="74" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7">
-        <v>288</v>
+        <v>142</v>
       </c>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7">
-        <v>1</v>
-      </c>
+      <c r="D74" s="7">
+        <v>1</v>
+      </c>
+      <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -2888,20 +3006,20 @@
         <v>0</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="N74" s="12"/>
     </row>
     <row r="75" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7">
-        <v>289</v>
+        <v>185</v>
       </c>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7">
-        <v>1</v>
-      </c>
+      <c r="D75" s="7">
+        <v>1</v>
+      </c>
+      <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -2913,20 +3031,20 @@
         <v>0</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="N75" s="10"/>
     </row>
     <row r="76" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7">
-        <v>1</v>
-      </c>
+      <c r="D76" s="7">
+        <v>1</v>
+      </c>
+      <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
@@ -2938,20 +3056,20 @@
         <v>0</v>
       </c>
       <c r="M76" s="13" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="N76" s="12"/>
     </row>
     <row r="77" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
-      <c r="D77" s="7"/>
-      <c r="E77" s="7">
-        <v>1</v>
-      </c>
+      <c r="D77" s="7">
+        <v>1</v>
+      </c>
+      <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
@@ -2963,20 +3081,20 @@
         <v>0</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="N77" s="12"/>
     </row>
     <row r="78" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7">
-        <v>337</v>
+        <v>394</v>
       </c>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
-      <c r="E78" s="7">
-        <v>1</v>
-      </c>
+      <c r="D78" s="7">
+        <v>1</v>
+      </c>
+      <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
@@ -2988,20 +3106,20 @@
         <v>0</v>
       </c>
       <c r="M78" s="13" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="N78" s="10"/>
     </row>
     <row r="79" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7">
-        <v>340</v>
+        <v>119</v>
       </c>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
-      <c r="D79" s="7"/>
-      <c r="E79" s="7">
-        <v>1</v>
-      </c>
+      <c r="D79" s="7">
+        <v>1</v>
+      </c>
+      <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
@@ -3013,20 +3131,20 @@
         <v>0</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="N79" s="10"/>
     </row>
     <row r="80" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7">
-        <v>344</v>
+        <v>159</v>
       </c>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7">
-        <v>1</v>
-      </c>
+      <c r="D80" s="7">
+        <v>1</v>
+      </c>
+      <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -3038,20 +3156,20 @@
         <v>0</v>
       </c>
       <c r="M80" s="13" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="N80" s="12"/>
     </row>
     <row r="81" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
-      <c r="D81" s="7"/>
-      <c r="E81" s="7">
-        <v>1</v>
-      </c>
+      <c r="D81" s="7">
+        <v>1</v>
+      </c>
+      <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -3063,20 +3181,20 @@
         <v>0</v>
       </c>
       <c r="M81" s="13" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="N81" s="12"/>
     </row>
     <row r="82" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7">
-        <v>115</v>
+        <v>218</v>
       </c>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
-      <c r="D82" s="7"/>
-      <c r="E82" s="7">
-        <v>1</v>
-      </c>
+      <c r="D82" s="7">
+        <v>1</v>
+      </c>
+      <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
@@ -3088,20 +3206,20 @@
         <v>0</v>
       </c>
       <c r="M82" s="13" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="N82" s="12"/>
     </row>
     <row r="83" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="7">
-        <v>154</v>
+        <v>257</v>
       </c>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
-      <c r="D83" s="7"/>
-      <c r="E83" s="7">
-        <v>1</v>
-      </c>
+      <c r="D83" s="7">
+        <v>1</v>
+      </c>
+      <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -3113,13 +3231,13 @@
         <v>0</v>
       </c>
       <c r="M83" s="13" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="N83" s="12"/>
     </row>
     <row r="84" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3138,13 +3256,13 @@
         <v>0</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="N84" s="10"/>
     </row>
     <row r="85" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3163,13 +3281,13 @@
         <v>0</v>
       </c>
       <c r="M85" s="13" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="N85" s="10"/>
     </row>
     <row r="86" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7">
-        <v>252</v>
+        <v>323</v>
       </c>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3188,13 +3306,13 @@
         <v>0</v>
       </c>
       <c r="M86" s="13" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="N86" s="12"/>
     </row>
     <row r="87" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7">
-        <v>302</v>
+        <v>358</v>
       </c>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3213,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="M87" s="13" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="N87" s="10"/>
     </row>
     <row r="88" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7">
-        <v>312</v>
+        <v>371</v>
       </c>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3238,13 +3356,13 @@
         <v>0</v>
       </c>
       <c r="M88" s="13" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="N88" s="12"/>
     </row>
     <row r="89" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7">
-        <v>334</v>
+        <v>160</v>
       </c>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3263,21 +3381,21 @@
         <v>0</v>
       </c>
       <c r="M89" s="13" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="N89" s="10"/>
     </row>
     <row r="90" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
-        <v>380</v>
+        <v>175</v>
       </c>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7">
-        <v>1</v>
-      </c>
+      <c r="E90" s="7">
+        <v>1</v>
+      </c>
+      <c r="F90" s="7"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
       <c r="I90" s="11"/>
@@ -3288,21 +3406,21 @@
         <v>0</v>
       </c>
       <c r="M90" s="13" t="s">
-        <v>63</v>
+        <v>119</v>
       </c>
       <c r="N90" s="10"/>
     </row>
     <row r="91" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7">
-        <v>1</v>
-      </c>
+      <c r="E91" s="7">
+        <v>1</v>
+      </c>
+      <c r="F91" s="7"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
       <c r="I91" s="11"/>
@@ -3313,21 +3431,21 @@
         <v>0</v>
       </c>
       <c r="M91" s="13" t="s">
-        <v>88</v>
+        <v>120</v>
       </c>
       <c r="N91" s="12"/>
     </row>
     <row r="92" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7">
-        <v>129</v>
+        <v>259</v>
       </c>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7">
-        <v>1</v>
-      </c>
+      <c r="E92" s="7">
+        <v>1</v>
+      </c>
+      <c r="F92" s="7"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
       <c r="I92" s="11"/>
@@ -3338,21 +3456,21 @@
         <v>0</v>
       </c>
       <c r="M92" s="13" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="N92" s="12"/>
     </row>
     <row r="93" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
-      <c r="E93" s="7"/>
-      <c r="F93" s="7">
-        <v>1</v>
-      </c>
+      <c r="E93" s="7">
+        <v>1</v>
+      </c>
+      <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
       <c r="I93" s="7"/>
@@ -3363,21 +3481,21 @@
         <v>0</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="N93" s="12"/>
     </row>
     <row r="94" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="11">
-        <v>183</v>
+        <v>277.5</v>
       </c>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
-      <c r="E94" s="7"/>
-      <c r="F94" s="7">
-        <v>1</v>
-      </c>
+      <c r="E94" s="7">
+        <v>1</v>
+      </c>
+      <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
       <c r="I94" s="7"/>
@@ -3388,21 +3506,21 @@
         <v>0</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="N94" s="12"/>
     </row>
     <row r="95" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7">
-        <v>236</v>
+        <v>344</v>
       </c>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7">
-        <v>1</v>
-      </c>
+      <c r="E95" s="7">
+        <v>1</v>
+      </c>
+      <c r="F95" s="7"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
       <c r="I95" s="11"/>
@@ -3413,21 +3531,21 @@
         <v>0</v>
       </c>
       <c r="M95" s="13" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="N95" s="12"/>
     </row>
     <row r="96" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
-        <v>245</v>
+        <v>4</v>
       </c>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7">
-        <v>1</v>
-      </c>
+      <c r="E96" s="7">
+        <v>1</v>
+      </c>
+      <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
       <c r="I96" s="7"/>
@@ -3438,21 +3556,21 @@
         <v>0</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="N96" s="12"/>
     </row>
     <row r="97" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7">
-        <v>305</v>
+        <v>416</v>
       </c>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
-      <c r="E97" s="7"/>
-      <c r="F97" s="7">
-        <v>1</v>
-      </c>
+      <c r="E97" s="7">
+        <v>1</v>
+      </c>
+      <c r="F97" s="7"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
       <c r="I97" s="11"/>
@@ -3463,307 +3581,899 @@
         <v>0</v>
       </c>
       <c r="M97" s="13" t="s">
-        <v>99</v>
+        <v>122</v>
       </c>
       <c r="N97" s="12"/>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A98" s="7">
+        <v>452</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7">
+        <v>1</v>
+      </c>
+      <c r="F98" s="7"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
       <c r="I98" s="11"/>
       <c r="J98" s="11"/>
       <c r="K98" s="11"/>
-      <c r="L98" s="8"/>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L98" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M98" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A99" s="7">
+        <v>498</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7">
+        <v>1</v>
+      </c>
+      <c r="F99" s="7"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
       <c r="I99" s="11"/>
       <c r="J99" s="11"/>
       <c r="K99" s="11"/>
-      <c r="L99" s="8"/>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L99" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M99" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A100" s="7">
+        <v>500</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7">
+        <v>1</v>
+      </c>
+      <c r="F100" s="7"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
       <c r="I100" s="11"/>
       <c r="J100" s="11"/>
       <c r="K100" s="11"/>
-      <c r="L100" s="8"/>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="8"/>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G102" s="7"/>
-      <c r="H102" s="7"/>
-      <c r="I102" s="7"/>
-      <c r="J102" s="7"/>
-      <c r="K102" s="7"/>
-      <c r="L102" s="8"/>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L100" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A101" s="7">
+        <v>59</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7">
+        <v>1</v>
+      </c>
+      <c r="F101" s="7"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A102" s="7">
+        <v>440</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7">
+        <v>1</v>
+      </c>
+      <c r="F102" s="7"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M102" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A103" s="7">
+        <v>446</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7">
+        <v>1</v>
+      </c>
+      <c r="F103" s="7"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
       <c r="J103" s="11"/>
       <c r="K103" s="11"/>
-      <c r="L103" s="8"/>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L103" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M103" s="13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A104" s="7">
+        <v>458</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7">
+        <v>1</v>
+      </c>
+      <c r="F104" s="7"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
       <c r="J104" s="11"/>
       <c r="K104" s="11"/>
-      <c r="L104" s="8"/>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L104" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A105" s="7">
+        <v>63</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7">
+        <v>1</v>
+      </c>
+      <c r="F105" s="7"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
       <c r="K105" s="11"/>
-      <c r="L105" s="8"/>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L105" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A106" s="7">
+        <v>462</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7">
+        <v>1</v>
+      </c>
+      <c r="F106" s="7"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
       <c r="I106" s="11"/>
       <c r="J106" s="11"/>
       <c r="K106" s="11"/>
-      <c r="L106" s="8"/>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
-      <c r="I107" s="7"/>
-      <c r="J107" s="7"/>
-      <c r="K107" s="7"/>
-      <c r="L107" s="8"/>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L106" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M106" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A107" s="7">
+        <v>103</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7">
+        <v>1</v>
+      </c>
+      <c r="F107" s="7"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M107" s="13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A108" s="7">
+        <v>151</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7">
+        <v>1</v>
+      </c>
+      <c r="F108" s="7"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
       <c r="J108" s="11"/>
       <c r="K108" s="11"/>
-      <c r="L108" s="8"/>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L108" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M108" s="13" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A109" s="7">
+        <v>217</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7">
+        <v>1</v>
+      </c>
+      <c r="F109" s="7"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
       <c r="I109" s="11"/>
       <c r="J109" s="11"/>
       <c r="K109" s="11"/>
-      <c r="L109" s="8"/>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L109" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M109" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A110" s="7">
+        <v>221</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7">
+        <v>1</v>
+      </c>
+      <c r="F110" s="7"/>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
       <c r="I110" s="11"/>
       <c r="J110" s="11"/>
       <c r="K110" s="11"/>
-      <c r="L110" s="8"/>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L110" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M110" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A111" s="7">
+        <v>222</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7">
+        <v>1</v>
+      </c>
+      <c r="F111" s="7"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
       <c r="I111" s="11"/>
       <c r="J111" s="11"/>
       <c r="K111" s="11"/>
-      <c r="L111" s="8"/>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L111" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A112" s="7">
+        <v>243</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7">
+        <v>1</v>
+      </c>
+      <c r="F112" s="7"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
       <c r="J112" s="11"/>
       <c r="K112" s="11"/>
-      <c r="L112" s="8"/>
-    </row>
-    <row r="113" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L112" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A113" s="7">
+        <v>258</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7">
+        <v>1</v>
+      </c>
+      <c r="F113" s="7"/>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
       <c r="J113" s="11"/>
       <c r="K113" s="11"/>
-      <c r="L113" s="8"/>
-    </row>
-    <row r="114" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L113" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M113" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A114" s="7">
+        <v>261</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7">
+        <v>1</v>
+      </c>
+      <c r="F114" s="7"/>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
       <c r="I114" s="11"/>
       <c r="J114" s="11"/>
       <c r="K114" s="11"/>
-      <c r="L114" s="8"/>
-    </row>
-    <row r="115" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L114" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M114" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A115" s="7">
+        <v>268</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7">
+        <v>1</v>
+      </c>
+      <c r="F115" s="7"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
       <c r="K115" s="11"/>
-      <c r="L115" s="8"/>
-    </row>
-    <row r="116" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L115" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M115" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A116" s="7">
+        <v>270</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7">
+        <v>1</v>
+      </c>
+      <c r="F116" s="7"/>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
       <c r="I116" s="11"/>
       <c r="J116" s="11"/>
       <c r="K116" s="11"/>
-      <c r="L116" s="8"/>
-    </row>
-    <row r="117" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
-      <c r="I117" s="7"/>
-      <c r="J117" s="7"/>
-      <c r="K117" s="7"/>
-      <c r="L117" s="8"/>
-    </row>
-    <row r="118" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L116" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M116" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A117" s="7">
+        <v>288</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7">
+        <v>1</v>
+      </c>
+      <c r="F117" s="7"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M117" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A118" s="7">
+        <v>289</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7">
+        <v>1</v>
+      </c>
+      <c r="F118" s="7"/>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
       <c r="I118" s="11"/>
       <c r="J118" s="11"/>
       <c r="K118" s="11"/>
-      <c r="L118" s="8"/>
-    </row>
-    <row r="119" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L118" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M118" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A119" s="7">
+        <v>316</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7">
+        <v>1</v>
+      </c>
+      <c r="F119" s="7"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
       <c r="I119" s="11"/>
       <c r="J119" s="11"/>
       <c r="K119" s="11"/>
-      <c r="L119" s="8"/>
-    </row>
-    <row r="120" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L119" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M119" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A120" s="7">
+        <v>214</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7">
+        <v>1</v>
+      </c>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
       <c r="I120" s="11"/>
       <c r="J120" s="11"/>
       <c r="K120" s="11"/>
-      <c r="L120" s="8"/>
-    </row>
-    <row r="121" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L120" s="8">
+        <f>SUM(G120:K120)</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A121" s="7">
+        <v>304</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7">
+        <v>1</v>
+      </c>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
       <c r="I121" s="11"/>
       <c r="J121" s="11"/>
       <c r="K121" s="11"/>
-      <c r="L121" s="8"/>
-    </row>
-    <row r="122" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L121" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M121" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A122" s="7">
+        <v>380</v>
+      </c>
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7">
+        <v>1</v>
+      </c>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
       <c r="I122" s="11"/>
       <c r="J122" s="11"/>
       <c r="K122" s="11"/>
-      <c r="L122" s="8"/>
-    </row>
-    <row r="123" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L122" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M122" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A123" s="7">
+        <v>468</v>
+      </c>
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7">
+        <v>1</v>
+      </c>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
       <c r="I123" s="11"/>
       <c r="J123" s="11"/>
       <c r="K123" s="11"/>
-      <c r="L123" s="8"/>
-    </row>
-    <row r="124" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L123" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M123" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A124" s="7">
+        <v>38</v>
+      </c>
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7">
+        <v>1</v>
+      </c>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
       <c r="I124" s="11"/>
       <c r="J124" s="11"/>
       <c r="K124" s="11"/>
-      <c r="L124" s="8"/>
-    </row>
-    <row r="125" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L124" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M124" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A125" s="7">
+        <v>45</v>
+      </c>
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7">
+        <v>1</v>
+      </c>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
       <c r="I125" s="11"/>
       <c r="J125" s="11"/>
       <c r="K125" s="11"/>
-      <c r="L125" s="8"/>
-    </row>
-    <row r="126" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L125" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M125" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A126" s="7">
+        <v>499</v>
+      </c>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7">
+        <v>1</v>
+      </c>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
       <c r="I126" s="11"/>
       <c r="J126" s="11"/>
       <c r="K126" s="11"/>
-      <c r="L126" s="8"/>
-    </row>
-    <row r="127" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L126" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M126" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A127" s="7">
+        <v>241</v>
+      </c>
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7">
+        <v>1</v>
+      </c>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
       <c r="I127" s="11"/>
       <c r="J127" s="11"/>
       <c r="K127" s="11"/>
-      <c r="L127" s="8"/>
-    </row>
-    <row r="128" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L127" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M127" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A128" s="7">
+        <v>276</v>
+      </c>
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7">
+        <v>1</v>
+      </c>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
       <c r="I128" s="11"/>
       <c r="J128" s="11"/>
       <c r="K128" s="11"/>
-      <c r="L128" s="8"/>
-    </row>
-    <row r="129" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L128" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M128" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A129" s="7">
+        <v>128</v>
+      </c>
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7">
+        <v>1</v>
+      </c>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
       <c r="I129" s="11"/>
       <c r="J129" s="11"/>
       <c r="K129" s="11"/>
-      <c r="L129" s="8"/>
-    </row>
-    <row r="130" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L129" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M129" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A130" s="7">
+        <v>183</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7">
+        <v>1</v>
+      </c>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
       <c r="I130" s="11"/>
       <c r="J130" s="11"/>
       <c r="K130" s="11"/>
-      <c r="L130" s="8"/>
-    </row>
-    <row r="131" spans="7:12" x14ac:dyDescent="0.3">
-      <c r="G131" s="7"/>
-      <c r="H131" s="7"/>
-      <c r="I131" s="7"/>
-      <c r="J131" s="7"/>
-      <c r="K131" s="7"/>
-      <c r="L131" s="8"/>
-    </row>
-    <row r="132" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L130" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M130" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A131" s="7">
+        <v>449</v>
+      </c>
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7">
+        <v>1</v>
+      </c>
+      <c r="G131" s="11"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11"/>
+      <c r="L131" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M131" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A132" s="7">
+        <v>412</v>
+      </c>
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7">
+        <v>1</v>
+      </c>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
       <c r="I132" s="11"/>
       <c r="J132" s="11"/>
       <c r="K132" s="11"/>
-      <c r="L132" s="8"/>
-    </row>
-    <row r="133" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L132" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M132" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A133" s="7">
+        <v>444</v>
+      </c>
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7">
+        <v>1</v>
+      </c>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
       <c r="I133" s="11"/>
       <c r="J133" s="11"/>
       <c r="K133" s="11"/>
-      <c r="L133" s="8"/>
-    </row>
-    <row r="134" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L133" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M133" s="13" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A134" s="7">
+        <v>461</v>
+      </c>
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7">
+        <v>1</v>
+      </c>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
       <c r="I134" s="11"/>
       <c r="J134" s="11"/>
       <c r="K134" s="11"/>
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="L134" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M134" s="13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
       <c r="I135" s="11"/>
@@ -3771,7 +4481,7 @@
       <c r="K135" s="11"/>
       <c r="L135" s="8"/>
     </row>
-    <row r="136" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
       <c r="I136" s="11"/>
@@ -3779,7 +4489,7 @@
       <c r="K136" s="11"/>
       <c r="L136" s="8"/>
     </row>
-    <row r="137" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
       <c r="I137" s="7"/>
@@ -3787,7 +4497,7 @@
       <c r="K137" s="7"/>
       <c r="L137" s="8"/>
     </row>
-    <row r="138" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
       <c r="I138" s="11"/>
@@ -3795,7 +4505,7 @@
       <c r="K138" s="11"/>
       <c r="L138" s="8"/>
     </row>
-    <row r="139" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
       <c r="I139" s="11"/>
@@ -3803,7 +4513,7 @@
       <c r="K139" s="11"/>
       <c r="L139" s="8"/>
     </row>
-    <row r="140" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
       <c r="I140" s="7"/>
@@ -3811,7 +4521,7 @@
       <c r="K140" s="7"/>
       <c r="L140" s="8"/>
     </row>
-    <row r="141" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
       <c r="I141" s="11"/>
@@ -3819,7 +4529,7 @@
       <c r="K141" s="11"/>
       <c r="L141" s="8"/>
     </row>
-    <row r="142" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
       <c r="I142" s="11"/>
@@ -3827,7 +4537,7 @@
       <c r="K142" s="11"/>
       <c r="L142" s="8"/>
     </row>
-    <row r="143" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
       <c r="I143" s="11"/>
@@ -3835,7 +4545,7 @@
       <c r="K143" s="11"/>
       <c r="L143" s="8"/>
     </row>
-    <row r="144" spans="7:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
       <c r="I144" s="7"/>
@@ -4123,177 +4833,190 @@
     <mergeCell ref="F1:F2"/>
   </mergeCells>
   <conditionalFormatting sqref="A36:A62 M4:M97 A4:A30">
-    <cfRule type="cellIs" dxfId="15" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="111" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:N43 N45:N48">
-    <cfRule type="cellIs" dxfId="14" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="107" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="cellIs" dxfId="13" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="106" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N49">
-    <cfRule type="cellIs" dxfId="12" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="105" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:N49">
-    <cfRule type="cellIs" dxfId="11" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="104" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98:A1048576">
-    <cfRule type="cellIs" dxfId="10" priority="97" operator="equal">
+  <conditionalFormatting sqref="A135:A1048576">
+    <cfRule type="cellIs" dxfId="11" priority="99" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83:A97">
-    <cfRule type="cellIs" dxfId="9" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="59" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1">
-    <cfRule type="cellIs" dxfId="8" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="58" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82 A31:A73">
-    <cfRule type="cellIs" dxfId="7" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="53" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A63:A70">
-    <cfRule type="cellIs" dxfId="6" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="52" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A74:A81">
-    <cfRule type="cellIs" dxfId="5" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M82 M31:M73">
-    <cfRule type="cellIs" dxfId="4" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="50" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M63:M70">
-    <cfRule type="cellIs" dxfId="3" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="49" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74:M81">
-    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="48" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="1" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="47" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98:A134">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M98:M134">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="M17" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M80" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M13" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M77" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M97" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M55" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M43" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M30" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="M78" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M8" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M19" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M87" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="M29" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M86" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="M42" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M18" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="M28" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M6" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="M83" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M20" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M59" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="M85" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="M57" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M31" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="M5" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="M58" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M27" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="M4" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="M84" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="M66" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="M56" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M53" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="M92" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M54" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="M64" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="M65" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="M95" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="M37" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="M89" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="M40" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="M81" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="M50" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="M39" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="M52" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="M38" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="M51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="M41" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="M73" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="M72" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="M69" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="M44" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="M67" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="M36" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="M45" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="M93" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="M76" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="M61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="M32" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="M74" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="M79" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="M21" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="M62" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="M26" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="M12" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="M60" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="M68" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="M71" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="M24" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="M35" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="M11" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="M22" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="M47" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="M48" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="M23" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="M46" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="M7" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="M16" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="M17" r:id="rId1" display="http://codeforces.com/problemset/problem/515/B" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="M14" r:id="rId2" display="http://codeforces.com/problemset/problem/471/B" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="M80" r:id="rId3" display="http://codeforces.com/problemset/problem/631/B" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="M13" r:id="rId4" display="http://codeforces.com/problemset/problem/289/B" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M77" r:id="rId5" display="http://codeforces.com/problemset/problem/586/B" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="M97" r:id="rId6" display="http://codeforces.com/problemset/problem/548/B" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="M55" r:id="rId7" display="http://codeforces.com/problemset/problem/271/B" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="M43" r:id="rId8" display="http://codeforces.com/problemset/problem/344/B" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="M30" r:id="rId9" display="http://codeforces.com/problemset/problem/385/B" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="M78" r:id="rId10" display="http://codeforces.com/problemset/problem/610/B" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="M8" r:id="rId11" display="http://codeforces.com/problemset/problem/352/B" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="M19" r:id="rId12" display="http://codeforces.com/problemset/problem/579/B" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="M87" r:id="rId13" display="http://codeforces.com/problemset/problem/544/B" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="M15" r:id="rId14" display="http://codeforces.com/problemset/problem/479/B" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="M29" r:id="rId15" display="http://codeforces.com/problemset/problem/318/B" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="M86" r:id="rId16" display="http://codeforces.com/problemset/problem/441/B" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="M42" r:id="rId17" display="http://codeforces.com/problemset/problem/312/B" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="M18" r:id="rId18" display="http://codeforces.com/problemset/problem/572/B" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="M28" r:id="rId19" display="http://codeforces.com/problemset/problem/298/B" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="M6" r:id="rId20" display="http://codeforces.com/problemset/problem/236/B" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="M83" r:id="rId21" display="http://codeforces.com/problemset/problem/253/B" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="M20" r:id="rId22" display="http://codeforces.com/problemset/problem/408/B" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="M59" r:id="rId23" display="http://codeforces.com/problemset/problem/371/B" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="M85" r:id="rId24" display="http://codeforces.com/problemset/problem/357/B" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="M57" r:id="rId25" display="http://codeforces.com/problemset/problem/337/B" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="M31" r:id="rId26" display="http://codeforces.com/problemset/problem/400/B" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="M5" r:id="rId27" display="http://codeforces.com/problemset/problem/222/B" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="M58" r:id="rId28" display="http://codeforces.com/problemset/problem/359/B" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="M27" r:id="rId29" display="http://codeforces.com/problemset/problem/151/B" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="M4" r:id="rId30" display="http://codeforces.com/problemset/problem/221/B" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="M84" r:id="rId31" display="http://codeforces.com/problemset/problem/270/B" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="M66" r:id="rId32" display="http://codeforces.com/problemset/problem/426/B" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="M56" r:id="rId33" display="http://codeforces.com/problemset/problem/272/B" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="M53" r:id="rId34" display="http://codeforces.com/problemset/problem/248/B" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="M92" r:id="rId35" display="http://codeforces.com/problemset/problem/205/B" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="M54" r:id="rId36" display="http://codeforces.com/problemset/problem/257/B" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="M64" r:id="rId37" display="http://codeforces.com/problemset/problem/376/B" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="M65" r:id="rId38" display="http://codeforces.com/problemset/problem/378/B" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="M95" r:id="rId39" display="http://codeforces.com/problemset/problem/402/B" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="M37" r:id="rId40" display="http://codeforces.com/problemset/problem/146/B" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="M89" r:id="rId41" display="http://codeforces.com/problemset/problem/604/B" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="M40" r:id="rId42" display="http://codeforces.com/problemset/problem/215/B" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="M81" r:id="rId43" display="http://codeforces.com/problemset/problem/152/B" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="M50" r:id="rId44" display="http://codeforces.com/problemset/problem/141/B" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="M39" r:id="rId45" display="http://codeforces.com/problemset/problem/195/B" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="M52" r:id="rId46" display="http://codeforces.com/problemset/problem/197/B" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="M38" r:id="rId47" display="http://codeforces.com/problemset/problem/194/B" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="M51" r:id="rId48" display="http://codeforces.com/problemset/problem/189/B" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="M41" r:id="rId49" display="http://codeforces.com/problemset/problem/230/B" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="M73" r:id="rId50" display="http://codeforces.com/problemset/problem/489/B" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="M72" r:id="rId51" display="http://codeforces.com/problemset/problem/474/B" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="M69" r:id="rId52" display="http://codeforces.com/problemset/problem/459/B" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="M44" r:id="rId53" display="http://codeforces.com/problemset/problem/478/B" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="M67" r:id="rId54" display="http://codeforces.com/problemset/problem/451/B" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="M36" r:id="rId55" display="http://codeforces.com/problemset/problem/766/B" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="M45" r:id="rId56" display="http://codeforces.com/problemset/problem/552/B" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="M93" r:id="rId57" display="http://codeforces.com/problemset/problem/279/B" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="M76" r:id="rId58" display="http://codeforces.com/problemset/problem/570/B" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="M61" r:id="rId59" display="http://codeforces.com/problemset/problem/507/B" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="M32" r:id="rId60" display="http://codeforces.com/problemset/problem/476/B" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="M74" r:id="rId61" display="http://codeforces.com/problemset/problem/508/B" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="M79" r:id="rId62" display="http://codeforces.com/problemset/problem/617/B" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="M21" r:id="rId63" display="http://codeforces.com/problemset/problem/545/B" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="M62" r:id="rId64" display="http://codeforces.com/problemset/problem/514/B" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="M26" r:id="rId65" display="http://codeforces.com/problemset/problem/758/B" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="M12" r:id="rId66" display="http://codeforces.com/problemset/problem/707/B" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="M60" r:id="rId67" display="http://codeforces.com/problemset/problem/450/B" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="M68" r:id="rId68" display="http://codeforces.com/problemset/problem/454/B" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="M71" r:id="rId69" display="http://codeforces.com/problemset/problem/472/B" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="M24" r:id="rId70" display="http://codeforces.com/problemset/problem/712/B" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="M35" r:id="rId71" display="http://codeforces.com/problemset/problem/276/B" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="M11" r:id="rId72" display="http://codeforces.com/problemset/problem/621/B" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="M22" r:id="rId73" display="http://codeforces.com/problemset/problem/554/B" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="M47" r:id="rId74" display="http://codeforces.com/problemset/problem/681/B" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="M48" r:id="rId75" display="http://codeforces.com/problemset/problem/749/B" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="M23" r:id="rId76" display="http://codeforces.com/problemset/problem/591/B" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="M46" r:id="rId77" display="http://codeforces.com/problemset/problem/560/B" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="M7" r:id="rId78" display="http://codeforces.com/problemset/problem/330/B" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="M16" r:id="rId79" display="http://codeforces.com/problemset/problem/486/B" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
     <hyperlink ref="M33" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="M9" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="M25" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="M49" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="M88" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="M70" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="M75" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="M82" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="M91" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="M34" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="M94" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="M63" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="M96" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="M10" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="M90" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="M9" r:id="rId81" display="http://codeforces.com/problemset/problem/462/B" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="M25" r:id="rId82" display="http://codeforces.com/problemset/problem/754/B" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="M49" r:id="rId83" display="http://codeforces.com/problemset/problem/761/B" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="M88" r:id="rId84" display="http://codeforces.com/problemset/problem/558/B" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="M70" r:id="rId85" display="http://codeforces.com/problemset/problem/469/B" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="M75" r:id="rId86" display="http://codeforces.com/problemset/problem/509/B" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="M82" r:id="rId87" display="http://codeforces.com/problemset/problem/175/B" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="M91" r:id="rId88" display="http://codeforces.com/problemset/problem/203/B" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="M34" r:id="rId89" display="http://codeforces.com/problemset/problem/228/B" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="M94" r:id="rId90" display="http://codeforces.com/problemset/problem/304/B" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="M63" r:id="rId91" display="http://codeforces.com/problemset/problem/370/B" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="M96" r:id="rId92" display="http://codeforces.com/problemset/problem/430/B" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="M10" r:id="rId93" display="http://codeforces.com/problemset/problem/567/B" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="M90" r:id="rId94" display="http://codeforces.com/problemset/problem/738/B" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId95"/>
+  <ignoredErrors>
+    <ignoredError sqref="L90:L97 L120:L134" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/level-2/codeforces-phase-2-2/codeforces-phase-2-2.xlsx
+++ b/level-2/codeforces-phase-2-2/codeforces-phase-2-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F818D6-F6DC-4ED5-B8F4-A95C3B39219C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B923B5-7A46-4792-A50C-AAFBBE332191}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,168 +46,6 @@
     <t>greedy</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/221/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/222/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/236/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/330/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/352/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/462/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/567/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/146/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/194/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/195/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/215/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/230/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/312/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/344/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/478/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/552/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/560/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/681/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/749/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/761/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/408/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/554/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/591/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/151/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/298/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/318/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/385/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/400/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/476/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/625/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/370/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/376/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/378/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/426/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/451/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/454/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/459/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/469/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/472/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/474/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/489/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/508/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/509/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/570/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/631/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/738/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/189/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/257/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/271/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/371/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/450/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/276/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/203/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/304/B</t>
-  </si>
-  <si>
     <t>brute force</t>
   </si>
   <si>
@@ -229,33 +67,6 @@
     <t>Learning Time in (min)</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/387/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/432/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/439/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/569/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/651/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/315/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/433/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/701/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/959/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/879/B</t>
   </si>
   <si>
@@ -268,15 +79,6 @@
     <t>https://codeforces.com/problemset/problem/998/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/143/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/255/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/47/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/1015/B</t>
   </si>
   <si>
@@ -289,12 +91,6 @@
     <t>https://codeforces.com/problemset/problem/5/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/716/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/965/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/99/B</t>
   </si>
   <si>
@@ -310,42 +106,6 @@
     <t>https://codeforces.com/problemset/problem/828/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/186/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/401/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/424/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/431/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/456/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/492/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/740/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/743/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/776/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/9/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/854/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/80/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/112/B</t>
   </si>
   <si>
@@ -361,36 +121,6 @@
     <t>https://codeforces.com/problemset/problem/131/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/302/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/361/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/583/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/682/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/714/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/262/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/285/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/327/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/4/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/811/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/899/B</t>
   </si>
   <si>
@@ -418,36 +148,12 @@
     <t>https://codeforces.com/problemset/problem/934/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/144/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/246/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/366/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/546/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/931/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/38/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/48/B</t>
   </si>
   <si>
     <t>https://codeforces.com/problemset/problem/1011/B</t>
   </si>
   <si>
-    <t>http://codeforces.com/problemset/problem/416/B</t>
-  </si>
-  <si>
-    <t>http://codeforces.com/problemset/problem/485/B</t>
-  </si>
-  <si>
     <t>https://codeforces.com/problemset/problem/897/B</t>
   </si>
   <si>
@@ -458,6 +164,300 @@
   </si>
   <si>
     <t>https://codeforces.com/problemset/problem/922/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/387/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/432/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/439/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/569/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/651/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/315/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/433/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/701/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/959/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/221/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/222/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/236/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/330/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/352/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/462/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/567/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/143/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/255/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/408/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/554/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/591/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/151/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/298/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/385/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/400/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/625/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/47/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/318/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/476/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/276/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/716/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/965/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/186/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/401/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/424/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/431/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/456/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/492/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/740/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/743/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/776/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/194/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/344/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/552/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/560/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/749/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/9/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/854/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/80/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/146/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/195/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/215/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/230/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/312/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/478/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/681/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/761/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/189/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/257/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/271/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/371/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/450/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/302/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/361/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/583/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/682/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/714/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/262/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/285/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/327/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/454/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/474/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/489/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/631/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/4/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/811/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/144/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/246/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/370/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/376/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/378/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/426/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/451/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/459/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/469/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/472/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/508/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/509/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/570/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/366/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/546/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/738/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/931/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/38/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/416/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/485/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/203/B</t>
+  </si>
+  <si>
+    <t>https://codeforces.com/problemset/problem/304/B</t>
   </si>
 </sst>
 </file>
@@ -1135,25 +1135,25 @@
         <v>7</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="I1" s="17" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="J1" s="17" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="L1" s="17" t="s">
-        <v>66</v>
+        <v>12</v>
       </c>
       <c r="M1" s="15" t="s">
         <v>2</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="13" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="N4" s="12"/>
     </row>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="N5" s="12"/>
     </row>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="N6" s="10"/>
     </row>
@@ -1331,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="N7" s="10"/>
     </row>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="N8" s="10"/>
     </row>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="N9" s="10"/>
     </row>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="N10" s="10"/>
     </row>
@@ -1431,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="N11" s="10"/>
     </row>
@@ -1456,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="N12" s="10"/>
     </row>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="N13" s="10"/>
     </row>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="N14" s="12"/>
     </row>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="N15" s="12"/>
     </row>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="N16" s="12"/>
     </row>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="N17" s="12"/>
     </row>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="N18" s="10"/>
     </row>
@@ -1631,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="N19" s="10"/>
     </row>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="N20" s="12"/>
     </row>
@@ -1681,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="N21" s="10"/>
     </row>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="N22" s="10"/>
     </row>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="N23" s="12"/>
     </row>
@@ -1756,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="N24" s="12"/>
     </row>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="N25" s="10"/>
     </row>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="N26" s="10"/>
     </row>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="N27" s="12"/>
     </row>
@@ -1856,7 +1856,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="N28" s="10"/>
     </row>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N29" s="10"/>
     </row>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="N30" s="10"/>
     </row>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="N31" s="10"/>
     </row>
@@ -1956,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="N32" s="10"/>
     </row>
@@ -1981,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="13" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="N33" s="12"/>
     </row>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="13" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="N34" s="12"/>
     </row>
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="M35" s="13" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="N35" s="12"/>
     </row>
@@ -2056,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="13" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="N36" s="10"/>
     </row>
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="13" t="s">
-        <v>87</v>
+        <v>21</v>
       </c>
       <c r="N37" s="10"/>
     </row>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="13" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="N38" s="10"/>
     </row>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="M39" s="13" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="N39" s="12"/>
     </row>
@@ -2156,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="13" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="N40" s="10"/>
     </row>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="13" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="N41" s="10"/>
     </row>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="M42" s="13" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="N42" s="10"/>
     </row>
@@ -2231,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="N43" s="12"/>
     </row>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="13" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="N44" s="10"/>
     </row>
@@ -2281,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="13" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="N45" s="10"/>
     </row>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="13" t="s">
-        <v>93</v>
+        <v>25</v>
       </c>
       <c r="N46" s="10"/>
     </row>
@@ -2331,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="13" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="N47" s="12"/>
     </row>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="M48" s="13" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="N48" s="10"/>
     </row>
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="13" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="N49" s="10"/>
     </row>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="13" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="N50" s="10"/>
     </row>
@@ -2431,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="13" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="N51" s="10"/>
     </row>
@@ -2456,7 +2456,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="13" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="N52" s="10"/>
     </row>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="M53" s="13" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="N53" s="12"/>
     </row>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="13" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="N54" s="12"/>
     </row>
@@ -2531,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="13" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="N55" s="12"/>
     </row>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="13" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="N56" s="12"/>
     </row>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="13" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="N57" s="10"/>
     </row>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="M58" s="13" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="N58" s="12"/>
     </row>
@@ -2631,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="13" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="N59" s="12"/>
     </row>
@@ -2656,7 +2656,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="13" t="s">
-        <v>23</v>
+        <v>91</v>
       </c>
       <c r="N60" s="10"/>
     </row>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="13" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="N61" s="12"/>
     </row>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="M62" s="13" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="N62" s="12"/>
     </row>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="13" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="N63" s="12"/>
     </row>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="M64" s="13" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="N64" s="12"/>
     </row>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="13" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="N65" s="12"/>
     </row>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="13" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="N66" s="10"/>
     </row>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="M67" s="13" t="s">
-        <v>109</v>
+        <v>29</v>
       </c>
       <c r="N67" s="12"/>
     </row>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="M68" s="13" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="N68" s="12"/>
     </row>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="M69" s="13" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="N69" s="10"/>
     </row>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="M70" s="13" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="N70" s="10"/>
     </row>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="M71" s="13" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="N71" s="10"/>
     </row>
@@ -2952,11 +2952,11 @@
       <c r="J72" s="11"/>
       <c r="K72" s="11"/>
       <c r="L72" s="8">
-        <f t="shared" ref="L72:L135" si="3">SUM(G72:K72)</f>
+        <f t="shared" ref="L72:L134" si="3">SUM(G72:K72)</f>
         <v>0</v>
       </c>
       <c r="M72" s="13" t="s">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="N72" s="10"/>
     </row>
@@ -2981,7 +2981,7 @@
         <v>0</v>
       </c>
       <c r="M73" s="13" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="N73" s="12"/>
     </row>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="M74" s="13" t="s">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="N74" s="12"/>
     </row>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="M75" s="13" t="s">
-        <v>20</v>
+        <v>101</v>
       </c>
       <c r="N75" s="10"/>
     </row>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="13" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="N76" s="12"/>
     </row>
@@ -3081,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="N77" s="12"/>
     </row>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="M78" s="13" t="s">
-        <v>27</v>
+        <v>104</v>
       </c>
       <c r="N78" s="10"/>
     </row>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>54</v>
+        <v>105</v>
       </c>
       <c r="N79" s="10"/>
     </row>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="M80" s="13" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="N80" s="12"/>
     </row>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="M81" s="13" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="N81" s="12"/>
     </row>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="M82" s="13" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="N82" s="12"/>
     </row>
@@ -3231,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="M83" s="13" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="N83" s="12"/>
     </row>
@@ -3256,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="N84" s="10"/>
     </row>
@@ -3281,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="M85" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N85" s="10"/>
     </row>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="M86" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N86" s="12"/>
     </row>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N87" s="10"/>
     </row>
@@ -3356,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="M88" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="N88" s="12"/>
     </row>
@@ -3381,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="M89" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N89" s="10"/>
     </row>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="M90" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="N90" s="10"/>
     </row>
@@ -3431,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="M91" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="N91" s="12"/>
     </row>
@@ -3456,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="M92" s="13" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
       <c r="N92" s="12"/>
     </row>
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="N93" s="12"/>
     </row>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="N94" s="12"/>
     </row>
@@ -3531,7 +3531,7 @@
         <v>0</v>
       </c>
       <c r="M95" s="13" t="s">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="N95" s="12"/>
     </row>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="M96" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N96" s="12"/>
     </row>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="M97" s="13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N97" s="12"/>
     </row>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="M98" s="13" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="M99" s="13" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="M100" s="13" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="M101" s="13" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -3702,7 +3702,7 @@
         <v>0</v>
       </c>
       <c r="M102" s="13" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="M103" s="13" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -3750,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="M104" s="13" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -3774,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="M105" s="13" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="M106" s="13" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="M107" s="13" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="M108" s="13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="M109" s="13" t="s">
-        <v>38</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -3894,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="M110" s="13" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="M111" s="13" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="18" x14ac:dyDescent="0.3">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="M112" s="13" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="M113" s="13" t="s">
-        <v>42</v>
+        <v>130</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="M114" s="13" t="s">
-        <v>44</v>
+        <v>131</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4014,7 +4014,7 @@
         <v>0</v>
       </c>
       <c r="M115" s="13" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
       <c r="M116" s="13" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4062,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="M117" s="13" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="M118" s="13" t="s">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4110,7 +4110,7 @@
         <v>0</v>
       </c>
       <c r="M119" s="13" t="s">
-        <v>51</v>
+        <v>136</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4134,7 +4134,7 @@
         <v>0</v>
       </c>
       <c r="M120" s="13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="M121" s="13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="M122" s="13" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="M123" s="13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4230,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="M124" s="13" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4254,7 +4254,7 @@
         <v>0</v>
       </c>
       <c r="M125" s="13" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4278,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="M126" s="13" t="s">
-        <v>139</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="M127" s="13" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="M128" s="13" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4350,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="M129" s="13" t="s">
-        <v>60</v>
+        <v>144</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4374,7 +4374,7 @@
         <v>0</v>
       </c>
       <c r="M130" s="13" t="s">
-        <v>61</v>
+        <v>145</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4398,7 +4398,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="13" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4422,7 +4422,7 @@
         <v>0</v>
       </c>
       <c r="M132" s="13" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="M133" s="13" t="s">
-        <v>144</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="18" x14ac:dyDescent="0.3">
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="M134" s="13" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.3">
@@ -4917,104 +4917,8 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="M17" r:id="rId1" display="http://codeforces.com/problemset/problem/515/B" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="M14" r:id="rId2" display="http://codeforces.com/problemset/problem/471/B" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="M80" r:id="rId3" display="http://codeforces.com/problemset/problem/631/B" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="M13" r:id="rId4" display="http://codeforces.com/problemset/problem/289/B" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="M77" r:id="rId5" display="http://codeforces.com/problemset/problem/586/B" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="M97" r:id="rId6" display="http://codeforces.com/problemset/problem/548/B" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="M55" r:id="rId7" display="http://codeforces.com/problemset/problem/271/B" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="M43" r:id="rId8" display="http://codeforces.com/problemset/problem/344/B" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="M30" r:id="rId9" display="http://codeforces.com/problemset/problem/385/B" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="M78" r:id="rId10" display="http://codeforces.com/problemset/problem/610/B" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="M8" r:id="rId11" display="http://codeforces.com/problemset/problem/352/B" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="M19" r:id="rId12" display="http://codeforces.com/problemset/problem/579/B" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="M87" r:id="rId13" display="http://codeforces.com/problemset/problem/544/B" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="M15" r:id="rId14" display="http://codeforces.com/problemset/problem/479/B" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="M29" r:id="rId15" display="http://codeforces.com/problemset/problem/318/B" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="M86" r:id="rId16" display="http://codeforces.com/problemset/problem/441/B" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="M42" r:id="rId17" display="http://codeforces.com/problemset/problem/312/B" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="M18" r:id="rId18" display="http://codeforces.com/problemset/problem/572/B" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="M28" r:id="rId19" display="http://codeforces.com/problemset/problem/298/B" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="M6" r:id="rId20" display="http://codeforces.com/problemset/problem/236/B" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="M83" r:id="rId21" display="http://codeforces.com/problemset/problem/253/B" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="M20" r:id="rId22" display="http://codeforces.com/problemset/problem/408/B" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="M59" r:id="rId23" display="http://codeforces.com/problemset/problem/371/B" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="M85" r:id="rId24" display="http://codeforces.com/problemset/problem/357/B" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="M57" r:id="rId25" display="http://codeforces.com/problemset/problem/337/B" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="M31" r:id="rId26" display="http://codeforces.com/problemset/problem/400/B" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="M5" r:id="rId27" display="http://codeforces.com/problemset/problem/222/B" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="M58" r:id="rId28" display="http://codeforces.com/problemset/problem/359/B" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="M27" r:id="rId29" display="http://codeforces.com/problemset/problem/151/B" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="M4" r:id="rId30" display="http://codeforces.com/problemset/problem/221/B" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="M84" r:id="rId31" display="http://codeforces.com/problemset/problem/270/B" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="M66" r:id="rId32" display="http://codeforces.com/problemset/problem/426/B" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="M56" r:id="rId33" display="http://codeforces.com/problemset/problem/272/B" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="M53" r:id="rId34" display="http://codeforces.com/problemset/problem/248/B" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="M92" r:id="rId35" display="http://codeforces.com/problemset/problem/205/B" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="M54" r:id="rId36" display="http://codeforces.com/problemset/problem/257/B" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="M64" r:id="rId37" display="http://codeforces.com/problemset/problem/376/B" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="M65" r:id="rId38" display="http://codeforces.com/problemset/problem/378/B" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="M95" r:id="rId39" display="http://codeforces.com/problemset/problem/402/B" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="M37" r:id="rId40" display="http://codeforces.com/problemset/problem/146/B" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="M89" r:id="rId41" display="http://codeforces.com/problemset/problem/604/B" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="M40" r:id="rId42" display="http://codeforces.com/problemset/problem/215/B" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="M81" r:id="rId43" display="http://codeforces.com/problemset/problem/152/B" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="M50" r:id="rId44" display="http://codeforces.com/problemset/problem/141/B" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="M39" r:id="rId45" display="http://codeforces.com/problemset/problem/195/B" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="M52" r:id="rId46" display="http://codeforces.com/problemset/problem/197/B" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="M38" r:id="rId47" display="http://codeforces.com/problemset/problem/194/B" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="M51" r:id="rId48" display="http://codeforces.com/problemset/problem/189/B" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="M41" r:id="rId49" display="http://codeforces.com/problemset/problem/230/B" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="M73" r:id="rId50" display="http://codeforces.com/problemset/problem/489/B" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="M72" r:id="rId51" display="http://codeforces.com/problemset/problem/474/B" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="M69" r:id="rId52" display="http://codeforces.com/problemset/problem/459/B" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="M44" r:id="rId53" display="http://codeforces.com/problemset/problem/478/B" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="M67" r:id="rId54" display="http://codeforces.com/problemset/problem/451/B" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="M36" r:id="rId55" display="http://codeforces.com/problemset/problem/766/B" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="M45" r:id="rId56" display="http://codeforces.com/problemset/problem/552/B" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="M93" r:id="rId57" display="http://codeforces.com/problemset/problem/279/B" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="M76" r:id="rId58" display="http://codeforces.com/problemset/problem/570/B" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="M61" r:id="rId59" display="http://codeforces.com/problemset/problem/507/B" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="M32" r:id="rId60" display="http://codeforces.com/problemset/problem/476/B" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="M74" r:id="rId61" display="http://codeforces.com/problemset/problem/508/B" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="M79" r:id="rId62" display="http://codeforces.com/problemset/problem/617/B" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="M21" r:id="rId63" display="http://codeforces.com/problemset/problem/545/B" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="M62" r:id="rId64" display="http://codeforces.com/problemset/problem/514/B" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="M26" r:id="rId65" display="http://codeforces.com/problemset/problem/758/B" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="M12" r:id="rId66" display="http://codeforces.com/problemset/problem/707/B" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="M60" r:id="rId67" display="http://codeforces.com/problemset/problem/450/B" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="M68" r:id="rId68" display="http://codeforces.com/problemset/problem/454/B" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="M71" r:id="rId69" display="http://codeforces.com/problemset/problem/472/B" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="M24" r:id="rId70" display="http://codeforces.com/problemset/problem/712/B" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="M35" r:id="rId71" display="http://codeforces.com/problemset/problem/276/B" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="M11" r:id="rId72" display="http://codeforces.com/problemset/problem/621/B" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="M22" r:id="rId73" display="http://codeforces.com/problemset/problem/554/B" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="M47" r:id="rId74" display="http://codeforces.com/problemset/problem/681/B" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="M48" r:id="rId75" display="http://codeforces.com/problemset/problem/749/B" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="M23" r:id="rId76" display="http://codeforces.com/problemset/problem/591/B" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="M46" r:id="rId77" display="http://codeforces.com/problemset/problem/560/B" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="M7" r:id="rId78" display="http://codeforces.com/problemset/problem/330/B" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="M16" r:id="rId79" display="http://codeforces.com/problemset/problem/486/B" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="M33" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="M9" r:id="rId81" display="http://codeforces.com/problemset/problem/462/B" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="M25" r:id="rId82" display="http://codeforces.com/problemset/problem/754/B" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="M49" r:id="rId83" display="http://codeforces.com/problemset/problem/761/B" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="M88" r:id="rId84" display="http://codeforces.com/problemset/problem/558/B" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="M70" r:id="rId85" display="http://codeforces.com/problemset/problem/469/B" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="M75" r:id="rId86" display="http://codeforces.com/problemset/problem/509/B" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="M82" r:id="rId87" display="http://codeforces.com/problemset/problem/175/B" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="M91" r:id="rId88" display="http://codeforces.com/problemset/problem/203/B" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="M34" r:id="rId89" display="http://codeforces.com/problemset/problem/228/B" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="M94" r:id="rId90" display="http://codeforces.com/problemset/problem/304/B" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="M63" r:id="rId91" display="http://codeforces.com/problemset/problem/370/B" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="M96" r:id="rId92" display="http://codeforces.com/problemset/problem/430/B" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="M10" r:id="rId93" display="http://codeforces.com/problemset/problem/567/B" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="M90" r:id="rId94" display="http://codeforces.com/problemset/problem/738/B" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId95"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="L90:L97 L120:L134" formulaRange="1"/>
   </ignoredErrors>
